--- a/data/trans_orig/P71_R2-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P71_R2-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>77530</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>63160</v>
+        <v>62329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>93260</v>
+        <v>95810</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1595861801957482</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1300064323836518</v>
+        <v>0.1282952839714192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.191962808181842</v>
+        <v>0.1972116864057324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>66</v>
@@ -765,19 +765,19 @@
         <v>61922</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>48963</v>
+        <v>48914</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>75877</v>
+        <v>76451</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1346059520418216</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.106435696693948</v>
+        <v>0.1063282106493978</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1649404929997297</v>
+        <v>0.1661872243250928</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>144</v>
@@ -786,19 +786,19 @@
         <v>139453</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>120334</v>
+        <v>119702</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163706</v>
+        <v>161304</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.147436683891902</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1272231652546925</v>
+        <v>0.1265555234455541</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1730790309428447</v>
+        <v>0.1705386062441161</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>173540</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>155767</v>
+        <v>153515</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>197390</v>
+        <v>194789</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3572100437409668</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3206270027220631</v>
+        <v>0.315991683695245</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4063023171896154</v>
+        <v>0.4009472044363833</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -836,19 +836,19 @@
         <v>163914</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>144259</v>
+        <v>144325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>184682</v>
+        <v>185382</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3563144064935523</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3135875659889686</v>
+        <v>0.3137310760682025</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4014590872144244</v>
+        <v>0.4029813995044866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>354</v>
@@ -857,19 +857,19 @@
         <v>337454</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309353</v>
+        <v>308400</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>366724</v>
+        <v>365527</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3567744375743618</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3270637746894904</v>
+        <v>0.3260570097320225</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3877199275015321</v>
+        <v>0.3864546594820488</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>169994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>147685</v>
+        <v>149845</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>191565</v>
+        <v>192432</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3499104619771322</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3039897230612918</v>
+        <v>0.3084364817913353</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3943128454862775</v>
+        <v>0.3960957484109576</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -907,19 +907,19 @@
         <v>136054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>117911</v>
+        <v>118775</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>155485</v>
+        <v>156032</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2957521917751526</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2563141200023379</v>
+        <v>0.2581923042393997</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3379899708693766</v>
+        <v>0.3391797935398129</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>308</v>
@@ -928,19 +928,19 @@
         <v>306048</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>278808</v>
+        <v>277648</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>332669</v>
+        <v>335733</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3235698016922409</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2947701343767827</v>
+        <v>0.293543665517768</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3517149193055999</v>
+        <v>0.3549541825861806</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>64757</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50246</v>
+        <v>51697</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>82316</v>
+        <v>81507</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1332933140861529</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1034251766619131</v>
+        <v>0.1064122242812027</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1694376711331839</v>
+        <v>0.1677713012760254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>99</v>
@@ -978,19 +978,19 @@
         <v>98136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>81943</v>
+        <v>80519</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>117932</v>
+        <v>117052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2133274496894735</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1781257545448434</v>
+        <v>0.1750305275761262</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2563584157987263</v>
+        <v>0.2544449454604943</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -999,19 +999,19 @@
         <v>162893</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>141220</v>
+        <v>141389</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>186590</v>
+        <v>185744</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1722190768414953</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1493048376295238</v>
+        <v>0.1494836017456753</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1972723595274909</v>
+        <v>0.1963777595253947</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>98538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80480</v>
+        <v>81402</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118238</v>
+        <v>117065</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.134676360890212</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1099956819733593</v>
+        <v>0.1112557811636967</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1616013625222576</v>
+        <v>0.1599989707534732</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>75</v>
@@ -1124,19 +1124,19 @@
         <v>76139</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>60128</v>
+        <v>60989</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>92493</v>
+        <v>95044</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1240497009217557</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09796294851318109</v>
+        <v>0.09936617304854421</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1506946777355131</v>
+        <v>0.1548499661211564</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>168</v>
@@ -1145,19 +1145,19 @@
         <v>174677</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>152030</v>
+        <v>150698</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>202008</v>
+        <v>201346</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1298285634410399</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1129964271620373</v>
+        <v>0.112006600536633</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1501421846621958</v>
+        <v>0.1496503953044223</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>271625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>245098</v>
+        <v>244431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>298629</v>
+        <v>299844</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3712429258779755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3349880187449369</v>
+        <v>0.3340754575119448</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4081515171542574</v>
+        <v>0.4098122152481358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -1195,19 +1195,19 @@
         <v>220218</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>197883</v>
+        <v>195925</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>245810</v>
+        <v>243738</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3587898953476168</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3224009098537925</v>
+        <v>0.3192105519317383</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4004858306663301</v>
+        <v>0.3971101699983108</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>471</v>
@@ -1216,19 +1216,19 @@
         <v>491843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>458456</v>
+        <v>455730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>525914</v>
+        <v>530121</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3655619527576598</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3407471864512039</v>
+        <v>0.338721197966385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3908850538044577</v>
+        <v>0.3940123971073985</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>236326</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>209601</v>
+        <v>211717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>262810</v>
+        <v>263663</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3229983019105815</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.28647249993967</v>
+        <v>0.289363713942266</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3591950780850433</v>
+        <v>0.3603615595699765</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -1266,19 +1266,19 @@
         <v>187055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164653</v>
+        <v>164950</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>209715</v>
+        <v>210759</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3047595609735073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2682604155140578</v>
+        <v>0.2687442660824463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3416785356305977</v>
+        <v>0.3433790698148362</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>406</v>
@@ -1287,19 +1287,19 @@
         <v>423381</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>389057</v>
+        <v>388249</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>458113</v>
+        <v>459437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3146779338877677</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2891664859592977</v>
+        <v>0.2885656066732371</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3404923666723058</v>
+        <v>0.3414760455389839</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>125175</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>105290</v>
+        <v>106632</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>149918</v>
+        <v>149539</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1710824113212309</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1439056402851693</v>
+        <v>0.1457395616571631</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2049003799113066</v>
+        <v>0.2043822866079547</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -1337,19 +1337,19 @@
         <v>130367</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>107976</v>
+        <v>109657</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>150494</v>
+        <v>151184</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2124008427571202</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1759192559903491</v>
+        <v>0.1786587432130436</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.245192315712717</v>
+        <v>0.246316016099005</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>235</v>
@@ -1358,19 +1358,19 @@
         <v>255542</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>227183</v>
+        <v>229768</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>284771</v>
+        <v>286162</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1899315499135325</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1688536948275769</v>
+        <v>0.1707748415850799</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2116560791535372</v>
+        <v>0.2126901587082977</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>95909</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78075</v>
+        <v>79114</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>116923</v>
+        <v>117125</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1510060808555932</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1229275647038968</v>
+        <v>0.1245621632711366</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1840911162590145</v>
+        <v>0.184410519324568</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1483,19 +1483,19 @@
         <v>83188</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>66349</v>
+        <v>68240</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100675</v>
+        <v>102494</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1227456050054463</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09789901047199263</v>
+        <v>0.100689557677624</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1485480397494942</v>
+        <v>0.151232516930862</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -1504,19 +1504,19 @@
         <v>179097</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>155903</v>
+        <v>155283</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>206776</v>
+        <v>205498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1364174220515829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.118750512258455</v>
+        <v>0.1182779928383477</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1574999461284672</v>
+        <v>0.1565271866788188</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>220752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>197001</v>
+        <v>198652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>245592</v>
+        <v>246556</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.347568049431738</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3101724150318309</v>
+        <v>0.3127717188156238</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3866780469200573</v>
+        <v>0.3881960045497648</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>190</v>
@@ -1554,19 +1554,19 @@
         <v>194737</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>170515</v>
+        <v>171997</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>218265</v>
+        <v>219183</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2873379300862262</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2515981085879205</v>
+        <v>0.2537850119331382</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3220541759879053</v>
+        <v>0.3234082773570056</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>406</v>
@@ -1575,19 +1575,19 @@
         <v>415489</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>383585</v>
+        <v>383575</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>449913</v>
+        <v>450336</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3164759805820932</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2921751784245485</v>
+        <v>0.2921671790003134</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3426966063035524</v>
+        <v>0.3430188364196557</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>223541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>198985</v>
+        <v>199610</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>251203</v>
+        <v>248500</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3519595539747172</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3132965471627464</v>
+        <v>0.3142800156355244</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3955115245494746</v>
+        <v>0.3912560596173968</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -1625,19 +1625,19 @@
         <v>226480</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>200378</v>
+        <v>202139</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>250966</v>
+        <v>250941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3341758707760912</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2956614893744992</v>
+        <v>0.2982598591232381</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3703056781790858</v>
+        <v>0.3702680247669245</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>427</v>
@@ -1646,19 +1646,19 @@
         <v>450021</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>417066</v>
+        <v>417767</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>488254</v>
+        <v>487088</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3427792384046941</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3176774063870169</v>
+        <v>0.3182110565427312</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3719006654057405</v>
+        <v>0.3710128940818286</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>94931</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78502</v>
+        <v>77993</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114857</v>
+        <v>115193</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1494663157379516</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1235997924383893</v>
+        <v>0.1227979175908974</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1808388016268198</v>
+        <v>0.1813673208751552</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>161</v>
@@ -1696,19 +1696,19 @@
         <v>173322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>149833</v>
+        <v>153194</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>196443</v>
+        <v>197188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2557405941322363</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2210822241021106</v>
+        <v>0.2260403059518659</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2898561498425126</v>
+        <v>0.290955523749612</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>250</v>
@@ -1717,19 +1717,19 @@
         <v>268253</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>241343</v>
+        <v>237904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>299065</v>
+        <v>297700</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2043273589616298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1838297537584897</v>
+        <v>0.1812100865222311</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2277964639125568</v>
+        <v>0.226756498882725</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>81502</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>65274</v>
+        <v>66139</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99887</v>
+        <v>98297</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1578704138791848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1264377958598095</v>
+        <v>0.1281115922712383</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1934838401570035</v>
+        <v>0.1904034102783588</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>48</v>
@@ -1842,19 +1842,19 @@
         <v>49769</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>37996</v>
+        <v>37166</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>65613</v>
+        <v>64346</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0984698822271393</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07517646027263854</v>
+        <v>0.07353485933234913</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1298195422123122</v>
+        <v>0.1273119361621793</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -1863,19 +1863,19 @@
         <v>131270</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>109878</v>
+        <v>109743</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>152600</v>
+        <v>154997</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1284851984691684</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1075471906892151</v>
+        <v>0.1074141720320346</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1493617865254052</v>
+        <v>0.1517082154300674</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>191272</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169067</v>
+        <v>170059</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>215211</v>
+        <v>215825</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.370498381857457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3274870447495013</v>
+        <v>0.3294079193317749</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4168683601381888</v>
+        <v>0.4180577232607193</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -1913,19 +1913,19 @@
         <v>141230</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120950</v>
+        <v>120978</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162692</v>
+        <v>161460</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2794319496163761</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2393052117197075</v>
+        <v>0.2393611289993205</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3218939555617402</v>
+        <v>0.3194580670907519</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>318</v>
@@ -1934,19 +1934,19 @@
         <v>332503</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>303865</v>
+        <v>303008</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>364136</v>
+        <v>362524</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3254481667566688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2974179239312775</v>
+        <v>0.296579255465687</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3564099213688106</v>
+        <v>0.3548320833184172</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>160907</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>140394</v>
+        <v>140870</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>182935</v>
+        <v>184037</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3116809069200293</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2719463537264974</v>
+        <v>0.2728682982178189</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3543478291476234</v>
+        <v>0.3564827190739542</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>176</v>
@@ -1984,19 +1984,19 @@
         <v>181059</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>160440</v>
+        <v>160021</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>204991</v>
+        <v>203076</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3582340144129906</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3174393179103899</v>
+        <v>0.3166092363804156</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.405585102393195</v>
+        <v>0.4017970212637071</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>327</v>
@@ -2005,19 +2005,19 @@
         <v>341966</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>308648</v>
+        <v>313109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>374707</v>
+        <v>374724</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3347105508245584</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3020989669203678</v>
+        <v>0.3064653349249057</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3667571191324689</v>
+        <v>0.366773469847577</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>82575</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66456</v>
+        <v>66129</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>102199</v>
+        <v>98639</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1599502973433289</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1287259393344661</v>
+        <v>0.1280925964918823</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1979612238767948</v>
+        <v>0.1910651154535127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>130</v>
@@ -2055,19 +2055,19 @@
         <v>133362</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>112771</v>
+        <v>114874</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>152269</v>
+        <v>153216</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.263864153743494</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2231224755698311</v>
+        <v>0.2272840220046992</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3012713908673881</v>
+        <v>0.3031457971303877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>204</v>
@@ -2076,19 +2076,19 @@
         <v>215938</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>188499</v>
+        <v>190819</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>242958</v>
+        <v>244466</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2113560839496044</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1844997992229731</v>
+        <v>0.1867706295070906</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2378026639250655</v>
+        <v>0.239279251362162</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>44379</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>32850</v>
+        <v>32427</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>59695</v>
+        <v>57620</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1179826641634529</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0873323041074294</v>
+        <v>0.08620887091274057</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1586993690715</v>
+        <v>0.1531843776815001</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>31</v>
@@ -2201,19 +2201,19 @@
         <v>30905</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>20998</v>
+        <v>21616</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42327</v>
+        <v>41617</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07786542436021356</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05290380995163187</v>
+        <v>0.05446094919499382</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1066424967235492</v>
+        <v>0.1048550212537845</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>75</v>
@@ -2222,19 +2222,19 @@
         <v>75284</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>60060</v>
+        <v>60216</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>93260</v>
+        <v>92998</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09738554609049738</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07769176681999418</v>
+        <v>0.07789401365145998</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.120638528584262</v>
+        <v>0.1202996021924323</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>119488</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>100291</v>
+        <v>101477</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>137405</v>
+        <v>137084</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3176615249462401</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2666259866648979</v>
+        <v>0.2697792065339212</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3652920701627213</v>
+        <v>0.3644400587146281</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>127</v>
@@ -2272,19 +2272,19 @@
         <v>127773</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110582</v>
+        <v>111310</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>147800</v>
+        <v>146143</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3219247785369504</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2786118574676854</v>
+        <v>0.2804470625988876</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3723830268480428</v>
+        <v>0.3682092735046315</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>252</v>
@@ -2293,19 +2293,19 @@
         <v>247261</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>224249</v>
+        <v>221998</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>275202</v>
+        <v>271172</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3198503778686617</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2900825715670044</v>
+        <v>0.2871710017534979</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3559939280729918</v>
+        <v>0.3507803704304844</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>124570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>105170</v>
+        <v>108035</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144222</v>
+        <v>141932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3311703188201319</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2795950844789134</v>
+        <v>0.2872120124613253</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3834157014634322</v>
+        <v>0.3773283190031196</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>120</v>
@@ -2343,19 +2343,19 @@
         <v>123293</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>105148</v>
+        <v>104967</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>143004</v>
+        <v>141913</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3106365285120736</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2649213266660126</v>
+        <v>0.2644658431981037</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3603005516173162</v>
+        <v>0.3575517934239437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>244</v>
@@ -2364,19 +2364,19 @@
         <v>247862</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>222434</v>
+        <v>222877</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>274216</v>
+        <v>273953</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3206277963152253</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2877338619762887</v>
+        <v>0.2883077741559182</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3547176267272134</v>
+        <v>0.3543776713987744</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>87713</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72259</v>
+        <v>71625</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>102544</v>
+        <v>104039</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.2331854920701751</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1921007561066725</v>
+        <v>0.1904168394072722</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2726150479444733</v>
+        <v>0.2765903007026972</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>111</v>
@@ -2414,19 +2414,19 @@
         <v>114932</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>97893</v>
+        <v>97158</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>132988</v>
+        <v>133298</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2895732685907625</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2466423634057516</v>
+        <v>0.2447900629999315</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.335064300620556</v>
+        <v>0.3358452984591266</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>200</v>
@@ -2435,19 +2435,19 @@
         <v>202645</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>178892</v>
+        <v>180745</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>226248</v>
+        <v>226012</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2621362797256156</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2314103264780366</v>
+        <v>0.2338066254764973</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2926678057959826</v>
+        <v>0.2923623074898654</v>
       </c>
     </row>
     <row r="28">
@@ -2539,19 +2539,19 @@
         <v>30614</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>21227</v>
+        <v>21561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>42192</v>
+        <v>41781</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1082693960012485</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07507121848525304</v>
+        <v>0.07625107889501054</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1492151669907604</v>
+        <v>0.1477597246624162</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>25</v>
@@ -2560,19 +2560,19 @@
         <v>23680</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15898</v>
+        <v>15730</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>33349</v>
+        <v>33967</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.07130239912346774</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04786953942319733</v>
+        <v>0.04736453920199305</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1004154040167954</v>
+        <v>0.1022786578467144</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>58</v>
@@ -2581,19 +2581,19 @@
         <v>54294</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42094</v>
+        <v>42979</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>68479</v>
+        <v>70449</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08830255343052451</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06846023244210099</v>
+        <v>0.06989983139182109</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1113713288358901</v>
+        <v>0.1145752358335353</v>
       </c>
     </row>
     <row r="30">
@@ -2610,19 +2610,19 @@
         <v>98283</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>83402</v>
+        <v>82442</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>113634</v>
+        <v>115043</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3475810001926569</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2949550598673467</v>
+        <v>0.2915601900740932</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4018722611554641</v>
+        <v>0.4068551064926698</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>79</v>
@@ -2631,19 +2631,19 @@
         <v>74052</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>61157</v>
+        <v>61320</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>88821</v>
+        <v>91200</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2229781022960419</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1841489187580549</v>
+        <v>0.1846399718528859</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2674479401511002</v>
+        <v>0.2746098106913237</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>176</v>
@@ -2652,19 +2652,19 @@
         <v>172335</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>152542</v>
+        <v>151035</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>194306</v>
+        <v>195471</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2802797137402242</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2480890993193335</v>
+        <v>0.245638507074057</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3160120636197031</v>
+        <v>0.3179067604389902</v>
       </c>
     </row>
     <row r="31">
@@ -2681,19 +2681,19 @@
         <v>88161</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>73541</v>
+        <v>72988</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>103846</v>
+        <v>104876</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3117863828888943</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2600791776750627</v>
+        <v>0.2581241306469415</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3672547785752587</v>
+        <v>0.3708981340367309</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>108</v>
@@ -2702,19 +2702,19 @@
         <v>99499</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84894</v>
+        <v>84394</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>115932</v>
+        <v>115873</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2995994229343197</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2556228246440002</v>
+        <v>0.2541187031059212</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3490807442971088</v>
+        <v>0.3489025436217303</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>199</v>
@@ -2723,19 +2723,19 @@
         <v>187660</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>167344</v>
+        <v>167468</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>210208</v>
+        <v>211077</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3052038868415898</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.272161964487932</v>
+        <v>0.2723633874244394</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3418746709746703</v>
+        <v>0.3432886468680157</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>65703</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>53404</v>
+        <v>52653</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79936</v>
+        <v>80354</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2323632209172003</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1888661862006316</v>
+        <v>0.1862094025414645</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2826974431837746</v>
+        <v>0.2841767607392587</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>147</v>
@@ -2773,19 +2773,19 @@
         <v>134875</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>118681</v>
+        <v>118718</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>151747</v>
+        <v>150124</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4061200756461707</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3573599283664299</v>
+        <v>0.3574711570105062</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4569226170786033</v>
+        <v>0.4520363625320911</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>218</v>
@@ -2794,19 +2794,19 @@
         <v>200578</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>178406</v>
+        <v>179942</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>221570</v>
+        <v>224216</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3262138459876615</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2901525317344816</v>
+        <v>0.2926511251369194</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3603536216521294</v>
+        <v>0.3646575334130366</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>18727</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11530</v>
+        <v>11328</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>28702</v>
+        <v>28158</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.09223245386183464</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05678456107192946</v>
+        <v>0.05578908583478141</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1413578244213163</v>
+        <v>0.1386818689355252</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -2919,19 +2919,19 @@
         <v>15555</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8542</v>
+        <v>8723</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>24763</v>
+        <v>25927</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.04727836571380604</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02596183937332682</v>
+        <v>0.026514197007725</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07526623230485609</v>
+        <v>0.07880521533531916</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -2940,19 +2940,19 @@
         <v>34282</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23140</v>
+        <v>24299</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>47425</v>
+        <v>46448</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06443394360361977</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.04349230266920999</v>
+        <v>0.04567032954371453</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08913634324746773</v>
+        <v>0.08730059362390326</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>46634</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35647</v>
+        <v>35574</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>59493</v>
+        <v>60694</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.229675427272427</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1755651268456352</v>
+        <v>0.175204433633882</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2930066481637683</v>
+        <v>0.2989228482083716</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -2990,19 +2990,19 @@
         <v>72015</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>56984</v>
+        <v>56685</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>90760</v>
+        <v>89292</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2188864936352105</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1732010804130492</v>
+        <v>0.1722931836234096</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2758614426664296</v>
+        <v>0.2714005247343631</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>108</v>
@@ -3011,19 +3011,19 @@
         <v>118649</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>98765</v>
+        <v>100093</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>139702</v>
+        <v>140128</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2230038141946181</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1856312372744903</v>
+        <v>0.1881277358785377</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2625749171116316</v>
+        <v>0.2633750288284053</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>74394</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>61537</v>
+        <v>60765</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>87356</v>
+        <v>87561</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3663971544570575</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3030732936840844</v>
+        <v>0.299273861067693</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4302366695080631</v>
+        <v>0.4312436917417998</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>92</v>
@@ -3061,19 +3061,19 @@
         <v>104098</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>87178</v>
+        <v>88039</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>123082</v>
+        <v>124258</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.316403469996462</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.264973588872983</v>
+        <v>0.2675909103649515</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3741022295820389</v>
+        <v>0.3776785813740825</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>172</v>
@@ -3082,19 +3082,19 @@
         <v>178493</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>157524</v>
+        <v>156521</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>203729</v>
+        <v>201009</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3354822809143547</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2960718472996419</v>
+        <v>0.2941867837611524</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3829142158540951</v>
+        <v>0.3778024196274644</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>63287</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>50756</v>
+        <v>50484</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>78016</v>
+        <v>76831</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3116949644086808</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2499754545338166</v>
+        <v>0.2486393236706062</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3842337679642749</v>
+        <v>0.3783975976969527</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>119</v>
@@ -3132,19 +3132,19 @@
         <v>137337</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>117800</v>
+        <v>117174</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>156667</v>
+        <v>156022</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4174316706545214</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3580486527128741</v>
+        <v>0.3561468984296824</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4761847842721628</v>
+        <v>0.4742239333934088</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>187</v>
@@ -3153,19 +3153,19 @@
         <v>200625</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>178283</v>
+        <v>178735</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>222594</v>
+        <v>224609</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3770799612874075</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3350882168516956</v>
+        <v>0.3359369930222968</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4183712342693308</v>
+        <v>0.4221589684394127</v>
       </c>
     </row>
     <row r="38">
@@ -3257,19 +3257,19 @@
         <v>447200</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>411394</v>
+        <v>409451</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>486312</v>
+        <v>486186</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1384163468228202</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.127333980430638</v>
+        <v>0.1267325874054654</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1505222996704913</v>
+        <v>0.1504833771714903</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>339</v>
@@ -3278,19 +3278,19 @@
         <v>341158</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>308108</v>
+        <v>307863</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>377236</v>
+        <v>374113</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1029144225665804</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.09294434220971495</v>
+        <v>0.09287060364939992</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1137977052934542</v>
+        <v>0.1128556730247787</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>775</v>
@@ -3299,19 +3299,19 @@
         <v>788358</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>736478</v>
+        <v>740125</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>839486</v>
+        <v>842520</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1204372142709813</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1125115648541151</v>
+        <v>0.1130686952145792</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1282480847986637</v>
+        <v>0.1287115967525203</v>
       </c>
     </row>
     <row r="40">
@@ -3328,19 +3328,19 @@
         <v>1121594</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1068823</v>
+        <v>1063618</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1179862</v>
+        <v>1177723</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3471537242441361</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.330820129502689</v>
+        <v>0.329209026092477</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3651887603163465</v>
+        <v>0.3645266925462715</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>982</v>
@@ -3349,19 +3349,19 @@
         <v>993940</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>942331</v>
+        <v>941542</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1046848</v>
+        <v>1050818</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2998338109292804</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2842655434760554</v>
+        <v>0.284027400948655</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3157943034686072</v>
+        <v>0.3169917660510617</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2085</v>
@@ -3370,19 +3370,19 @@
         <v>2115534</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2038655</v>
+        <v>2039070</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2190674</v>
+        <v>2188766</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3231896430949351</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.3114448639411263</v>
+        <v>0.3115082967073393</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3346686867261827</v>
+        <v>0.3343772032504074</v>
       </c>
     </row>
     <row r="41">
@@ -3399,19 +3399,19 @@
         <v>1077894</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1021870</v>
+        <v>1023562</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1133600</v>
+        <v>1126473</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3336276168208561</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3162871422766038</v>
+        <v>0.3168108180737333</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3508696394458807</v>
+        <v>0.3486639066890131</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1028</v>
@@ -3420,19 +3420,19 @@
         <v>1057538</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1000765</v>
+        <v>1007663</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1110350</v>
+        <v>1114560</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.319018943712194</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3018927754036018</v>
+        <v>0.3039736626507335</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3349501990213267</v>
+        <v>0.3362202441150174</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2083</v>
@@ -3441,19 +3441,19 @@
         <v>2135432</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2058686</v>
+        <v>2064230</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2213631</v>
+        <v>2215437</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3262293905069414</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3145050239581297</v>
+        <v>0.315351919133231</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3381758542454951</v>
+        <v>0.3384517329354192</v>
       </c>
     </row>
     <row r="42">
@@ -3470,19 +3470,19 @@
         <v>584141</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>536762</v>
+        <v>540265</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>624587</v>
+        <v>629286</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1808023121121876</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1661375860688604</v>
+        <v>0.1672216755585526</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1933209398755536</v>
+        <v>0.1947754577590402</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>885</v>
@@ -3491,19 +3491,19 @@
         <v>922333</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>870066</v>
+        <v>874633</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>976568</v>
+        <v>972911</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2782328227919453</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2624656905835934</v>
+        <v>0.26384362051667</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2945932591776289</v>
+        <v>0.2934901523510872</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1459</v>
@@ -3512,19 +3512,19 @@
         <v>1506475</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1439705</v>
+        <v>1436929</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1567173</v>
+        <v>1571189</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2301437521271422</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2199434528498186</v>
+        <v>0.2195193612301093</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2394166689381697</v>
+        <v>0.2400301997662136</v>
       </c>
     </row>
     <row r="43">
@@ -3859,19 +3859,19 @@
         <v>72529</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>58815</v>
+        <v>59328</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88833</v>
+        <v>91299</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1607277999719919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1303370056760614</v>
+        <v>0.1314735509941669</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1968581938468888</v>
+        <v>0.2023224357576747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -3880,19 +3880,19 @@
         <v>61003</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>49041</v>
+        <v>48369</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>77144</v>
+        <v>75991</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1420988783516489</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1142342184010461</v>
+        <v>0.1126690101844263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.179696028722214</v>
+        <v>0.1770104734337933</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>133</v>
@@ -3901,19 +3901,19 @@
         <v>133532</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114704</v>
+        <v>112545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>156160</v>
+        <v>155643</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.151645556276006</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1302633272711032</v>
+        <v>0.1278113156206139</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1773430743119915</v>
+        <v>0.1767564350063711</v>
       </c>
     </row>
     <row r="5">
@@ -3930,19 +3930,19 @@
         <v>118887</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>101265</v>
+        <v>100619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>140055</v>
+        <v>137856</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2634596723999609</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2244084223112207</v>
+        <v>0.2229760295683108</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3103686325897546</v>
+        <v>0.3054955703175548</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>111</v>
@@ -3951,19 +3951,19 @@
         <v>112625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94104</v>
+        <v>95694</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131173</v>
+        <v>131858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2623467648086426</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.219203913161084</v>
+        <v>0.222908007087382</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3055512405698164</v>
+        <v>0.3071455708814909</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>226</v>
@@ -3972,19 +3972,19 @@
         <v>231512</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>206017</v>
+        <v>206150</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>258060</v>
+        <v>257269</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2629170914518276</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2339629130328469</v>
+        <v>0.2341146343227232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2930659883162363</v>
+        <v>0.2921672742923193</v>
       </c>
     </row>
     <row r="6">
@@ -4001,19 +4001,19 @@
         <v>129873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>112295</v>
+        <v>110689</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>147957</v>
+        <v>147591</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2878053207919912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2488504713553618</v>
+        <v>0.2452923426141798</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3278800324646925</v>
+        <v>0.3270700494524456</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>142</v>
@@ -4022,19 +4022,19 @@
         <v>145328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>126207</v>
+        <v>127000</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>164713</v>
+        <v>165945</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3385237766506989</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2939835302722217</v>
+        <v>0.2958294472695494</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3836774730819992</v>
+        <v>0.3865485443627136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>271</v>
@@ -4043,19 +4043,19 @@
         <v>275201</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>246931</v>
+        <v>246879</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>302833</v>
+        <v>303689</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3125323224607227</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2804266832163019</v>
+        <v>0.2803684760428681</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3439125206657543</v>
+        <v>0.3448846396731758</v>
       </c>
     </row>
     <row r="7">
@@ -4072,19 +4072,19 @@
         <v>129964</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112373</v>
+        <v>110174</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>150994</v>
+        <v>149323</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.288007206836056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2490245730252566</v>
+        <v>0.2441507207716073</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3346106898221408</v>
+        <v>0.330907361676171</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -4093,19 +4093,19 @@
         <v>110343</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>93554</v>
+        <v>91630</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129693</v>
+        <v>128740</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2570305801890096</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2179220012575142</v>
+        <v>0.2134412817148856</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3021035615186127</v>
+        <v>0.2998834383058596</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>233</v>
@@ -4114,19 +4114,19 @@
         <v>240307</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>215555</v>
+        <v>212555</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>268014</v>
+        <v>266612</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2729050298114437</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2447951320871151</v>
+        <v>0.2413878247871248</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3043700582503875</v>
+        <v>0.3027777090800498</v>
       </c>
     </row>
     <row r="8">
@@ -4218,19 +4218,19 @@
         <v>109385</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>90307</v>
+        <v>89985</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>130511</v>
+        <v>129983</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1596415641460274</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1317978053016718</v>
+        <v>0.1313281636208203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1904739136858147</v>
+        <v>0.1897026544307432</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>73</v>
@@ -4239,19 +4239,19 @@
         <v>77491</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>61644</v>
+        <v>62657</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>97194</v>
+        <v>97042</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1269805517225913</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1010128535353912</v>
+        <v>0.1026726941695969</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1592683358633432</v>
+        <v>0.1590194326159333</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>175</v>
@@ -4260,19 +4260,19 @@
         <v>186876</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161217</v>
+        <v>160818</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>215250</v>
+        <v>212351</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1442557284843576</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1244483901860292</v>
+        <v>0.1241408787359284</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1661584188597992</v>
+        <v>0.1639209501497794</v>
       </c>
     </row>
     <row r="10">
@@ -4289,19 +4289,19 @@
         <v>167617</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>145550</v>
+        <v>143829</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>194195</v>
+        <v>191875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2446276944484548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2124217337250358</v>
+        <v>0.2099101044500366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2834157992321739</v>
+        <v>0.2800311295505867</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -4310,19 +4310,19 @@
         <v>145227</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125323</v>
+        <v>124804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>169178</v>
+        <v>167126</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2379773960249519</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2053617123286739</v>
+        <v>0.2045104197966501</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2772258127061401</v>
+        <v>0.2738632188407602</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -4331,19 +4331,19 @@
         <v>312844</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>282200</v>
+        <v>282528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>344365</v>
+        <v>347005</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2414948950937215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2178398988882502</v>
+        <v>0.2180925210442378</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2658267172297542</v>
+        <v>0.2678648970603042</v>
       </c>
     </row>
     <row r="11">
@@ -4360,19 +4360,19 @@
         <v>204028</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>178972</v>
+        <v>181167</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>227267</v>
+        <v>229723</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2977677155809089</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2611988362623504</v>
+        <v>0.264402237701852</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3316831353663853</v>
+        <v>0.3352680962095563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>173</v>
@@ -4381,19 +4381,19 @@
         <v>181740</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159315</v>
+        <v>160766</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>207048</v>
+        <v>206441</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2978098473591322</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2610633359178973</v>
+        <v>0.2634409665913642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3392814237613133</v>
+        <v>0.3382872428036406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>372</v>
@@ -4402,19 +4402,19 @@
         <v>385769</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>350290</v>
+        <v>351450</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>420163</v>
+        <v>419406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2977875628718463</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2704006571867507</v>
+        <v>0.2712956129376156</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3243377366283891</v>
+        <v>0.3237530677480208</v>
       </c>
     </row>
     <row r="12">
@@ -4431,19 +4431,19 @@
         <v>204162</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>179726</v>
+        <v>181033</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226765</v>
+        <v>230325</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2979630258246089</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2622999919026407</v>
+        <v>0.2642079751097491</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3309507382850022</v>
+        <v>0.3361466245395952</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>190</v>
@@ -4452,19 +4452,19 @@
         <v>205798</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>181154</v>
+        <v>182499</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>227311</v>
+        <v>230534</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3372322048933246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2968494971094323</v>
+        <v>0.2990542115792974</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3724851925827625</v>
+        <v>0.3777671703816183</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>390</v>
@@ -4473,19 +4473,19 @@
         <v>409960</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>374696</v>
+        <v>374713</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>442760</v>
+        <v>444411</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3164618135500746</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.289240027403573</v>
+        <v>0.2892530511738516</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3417812468150516</v>
+        <v>0.343055561508141</v>
       </c>
     </row>
     <row r="13">
@@ -4577,19 +4577,19 @@
         <v>104569</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>88266</v>
+        <v>86061</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>127620</v>
+        <v>126372</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1540309725961587</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1300167995899505</v>
+        <v>0.1267686540094199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1879860913863481</v>
+        <v>0.1861477906630317</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>77</v>
@@ -4598,19 +4598,19 @@
         <v>82881</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>67306</v>
+        <v>67632</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>102173</v>
+        <v>103209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1172242594937728</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09519518422859184</v>
+        <v>0.09565635305339501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1445096956187471</v>
+        <v>0.1459750365266674</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>173</v>
@@ -4619,19 +4619,19 @@
         <v>187450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>161374</v>
+        <v>163227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>214301</v>
+        <v>216560</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1352538508129799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1164390364132371</v>
+        <v>0.1177764014251848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1546283371632765</v>
+        <v>0.1562580040595544</v>
       </c>
     </row>
     <row r="15">
@@ -4648,19 +4648,19 @@
         <v>145684</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>124277</v>
+        <v>123970</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>170175</v>
+        <v>169795</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2145936493352376</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1830610965702744</v>
+        <v>0.1826086204186296</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2506696580414395</v>
+        <v>0.2501094762513535</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>160</v>
@@ -4669,19 +4669,19 @@
         <v>164608</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>143332</v>
+        <v>142257</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>189368</v>
+        <v>187456</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2328166628552272</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2027245798221621</v>
+        <v>0.2012036219786964</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2678367065652628</v>
+        <v>0.2651321506951974</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>301</v>
@@ -4690,19 +4690,19 @@
         <v>310292</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>280958</v>
+        <v>280609</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>342959</v>
+        <v>344789</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2238902073617455</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2027248610467798</v>
+        <v>0.2024724515748684</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2474615306819378</v>
+        <v>0.2487817142492449</v>
       </c>
     </row>
     <row r="16">
@@ -4719,19 +4719,19 @@
         <v>190968</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>163881</v>
+        <v>167224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212817</v>
+        <v>216470</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2812975024749224</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2413979837238208</v>
+        <v>0.2463228441837475</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3134812488022491</v>
+        <v>0.3188625358779775</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>194</v>
@@ -4740,19 +4740,19 @@
         <v>208744</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>185205</v>
+        <v>183876</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>235349</v>
+        <v>234308</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2952410688191738</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2619488816502972</v>
+        <v>0.2600681024418731</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3328700739037411</v>
+        <v>0.3313981591160749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>378</v>
@@ -4761,19 +4761,19 @@
         <v>399712</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>368376</v>
+        <v>369944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>436012</v>
+        <v>438405</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2884108799343421</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2658007999855132</v>
+        <v>0.26693192325068</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3146031935360336</v>
+        <v>0.3163304206738878</v>
       </c>
     </row>
     <row r="17">
@@ -4790,19 +4790,19 @@
         <v>237662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>214615</v>
+        <v>212059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>265393</v>
+        <v>261941</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3500778755936814</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3161293234029829</v>
+        <v>0.3123653890434003</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.390925820784453</v>
+        <v>0.3858410041148881</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>233</v>
@@ -4811,19 +4811,19 @@
         <v>250796</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>226280</v>
+        <v>224274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>277916</v>
+        <v>278887</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3547180088318262</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3200432820192735</v>
+        <v>0.3172064606710518</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.393076289197627</v>
+        <v>0.39444869538509</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>461</v>
@@ -4832,19 +4832,19 @@
         <v>488457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>454194</v>
+        <v>451451</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>523772</v>
+        <v>525096</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3524450618909326</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3277225241270008</v>
+        <v>0.3257434693069495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3779267096566915</v>
+        <v>0.3788819267816733</v>
       </c>
     </row>
     <row r="18">
@@ -4936,19 +4936,19 @@
         <v>74938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>58782</v>
+        <v>59128</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>92078</v>
+        <v>92809</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.121926874690355</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0956393945033087</v>
+        <v>0.09620292444355645</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1498143631085636</v>
+        <v>0.1510022593994286</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>75</v>
@@ -4957,19 +4957,19 @@
         <v>87407</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>70200</v>
+        <v>68420</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>108443</v>
+        <v>105034</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1423808872879019</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.114350380258399</v>
+        <v>0.1114517365769019</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1766465163566973</v>
+        <v>0.1710929385681367</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>141</v>
@@ -4978,19 +4978,19 @@
         <v>162346</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>136125</v>
+        <v>137466</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>189447</v>
+        <v>190641</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1321479111490252</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1108044958659184</v>
+        <v>0.1118957043841676</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1542083233772207</v>
+        <v>0.1551795784537018</v>
       </c>
     </row>
     <row r="20">
@@ -5007,19 +5007,19 @@
         <v>164104</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>142382</v>
+        <v>138472</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190356</v>
+        <v>185836</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2670020894930032</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2316597977175668</v>
+        <v>0.2252978512893649</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3097140575404974</v>
+        <v>0.302360826984116</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>120</v>
@@ -5028,19 +5028,19 @@
         <v>133287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113701</v>
+        <v>112580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>156889</v>
+        <v>155109</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2171162347811653</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1852110290597056</v>
+        <v>0.1833850865741115</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2555609740323929</v>
+        <v>0.2526621582431476</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>266</v>
@@ -5049,19 +5049,19 @@
         <v>297391</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>269129</v>
+        <v>266838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>333088</v>
+        <v>329915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2420737221445459</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2190679678674361</v>
+        <v>0.2172034408460183</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2711299725839112</v>
+        <v>0.2685473292757101</v>
       </c>
     </row>
     <row r="21">
@@ -5078,19 +5078,19 @@
         <v>169218</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>147936</v>
+        <v>148125</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>195135</v>
+        <v>193476</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.275323332660217</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2406954810747459</v>
+        <v>0.241003935111626</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3174901425156816</v>
+        <v>0.3147908610840471</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>161</v>
@@ -5099,19 +5099,19 @@
         <v>185397</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>162971</v>
+        <v>162073</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>208191</v>
+        <v>210286</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3019987774465565</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2654693036201411</v>
+        <v>0.2640067004825055</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3391298218014697</v>
+        <v>0.3425423977205752</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>314</v>
@@ -5120,19 +5120,19 @@
         <v>354615</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>320545</v>
+        <v>320326</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>390650</v>
+        <v>389518</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.288653269385939</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.260920279223904</v>
+        <v>0.26074254515912</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3179855924660382</v>
+        <v>0.3170638974663285</v>
       </c>
     </row>
     <row r="22">
@@ -5149,19 +5149,19 @@
         <v>206356</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>181885</v>
+        <v>182822</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>230686</v>
+        <v>231225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3357477031564249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2959329149681008</v>
+        <v>0.2974575402923652</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3753335104530646</v>
+        <v>0.3762106096054454</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>181</v>
@@ -5170,19 +5170,19 @@
         <v>207807</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>183018</v>
+        <v>180881</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>233033</v>
+        <v>233980</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3385041004843764</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2981238024055847</v>
+        <v>0.2946436179680542</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3795953640081527</v>
+        <v>0.3811372006271255</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>364</v>
@@ -5191,19 +5191,19 @@
         <v>414164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>380145</v>
+        <v>377267</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>451278</v>
+        <v>448356</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3371250973204899</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.309434437748455</v>
+        <v>0.3070913497870361</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3673356159639604</v>
+        <v>0.3649577993905518</v>
       </c>
     </row>
     <row r="23">
@@ -5295,19 +5295,19 @@
         <v>63505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>48353</v>
+        <v>49015</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>79809</v>
+        <v>81579</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1494697098285835</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1138068101906169</v>
+        <v>0.1153665113342831</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1878444095863065</v>
+        <v>0.1920106922899723</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>51</v>
@@ -5316,19 +5316,19 @@
         <v>58904</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45429</v>
+        <v>44913</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>76491</v>
+        <v>73798</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1331402368907578</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1026841290633846</v>
+        <v>0.1015178465737284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.172892650650843</v>
+        <v>0.1668061890521069</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>108</v>
@@ -5337,19 +5337,19 @@
         <v>122408</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>103393</v>
+        <v>101375</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>147318</v>
+        <v>146372</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1411397545778351</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1192149584013676</v>
+        <v>0.1168879053510099</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1698614533225637</v>
+        <v>0.1687710739460213</v>
       </c>
     </row>
     <row r="25">
@@ -5366,19 +5366,19 @@
         <v>122588</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>104494</v>
+        <v>104259</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>142777</v>
+        <v>142882</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2885337357102967</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.245945346492701</v>
+        <v>0.2453915339933262</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3360508839012126</v>
+        <v>0.3362992456502893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>116</v>
@@ -5387,19 +5387,19 @@
         <v>127977</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>110289</v>
+        <v>108628</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>150225</v>
+        <v>148008</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2892674337126466</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2492869784245829</v>
+        <v>0.2455339992375575</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3395544214761562</v>
+        <v>0.3345445665291161</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>229</v>
@@ -5408,19 +5408,19 @@
         <v>250565</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>223678</v>
+        <v>225339</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>278915</v>
+        <v>280806</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2889080081409139</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2579067733108085</v>
+        <v>0.2598209984261954</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3215954421039834</v>
+        <v>0.323775795874908</v>
       </c>
     </row>
     <row r="26">
@@ -5437,19 +5437,19 @@
         <v>110516</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>91338</v>
+        <v>91949</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>128311</v>
+        <v>130070</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2601188874230209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2149808086512874</v>
+        <v>0.2164189689147621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3020038078593384</v>
+        <v>0.3061425740711756</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>114</v>
@@ -5458,19 +5458,19 @@
         <v>125987</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>106872</v>
+        <v>107182</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>146906</v>
+        <v>147789</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2847686890492155</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2415648522502961</v>
+        <v>0.2422651149990931</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3320526196946427</v>
+        <v>0.3340482305700443</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>216</v>
@@ -5479,19 +5479,19 @@
         <v>236502</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>210670</v>
+        <v>210594</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>263951</v>
+        <v>266531</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.272693190664027</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2429078300766815</v>
+        <v>0.2428196454343332</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3043423510971638</v>
+        <v>0.3073170325428733</v>
       </c>
     </row>
     <row r="27">
@@ -5508,19 +5508,19 @@
         <v>128258</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>109913</v>
+        <v>109743</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>149395</v>
+        <v>147669</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.301877667038099</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.258700920166525</v>
+        <v>0.2583003133607875</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3516281129030199</v>
+        <v>0.347564483566734</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>120</v>
@@ -5529,19 +5529,19 @@
         <v>129550</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>110241</v>
+        <v>109659</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>150648</v>
+        <v>148835</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2928236403473802</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2491780560522049</v>
+        <v>0.2478634054053036</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3405112458798323</v>
+        <v>0.3364125341305549</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>237</v>
@@ -5550,19 +5550,19 @@
         <v>257808</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>233473</v>
+        <v>229307</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>287577</v>
+        <v>287098</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2972590466172239</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2691999138240712</v>
+        <v>0.2643963303146127</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3315829812159983</v>
+        <v>0.3310306018505115</v>
       </c>
     </row>
     <row r="28">
@@ -5654,19 +5654,19 @@
         <v>41139</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>30074</v>
+        <v>28524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>56365</v>
+        <v>54723</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.134642126609755</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.09842890260345059</v>
+        <v>0.09335556128826401</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1844720659725138</v>
+        <v>0.1791010804692165</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>36</v>
@@ -5675,19 +5675,19 @@
         <v>40712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29311</v>
+        <v>29706</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54859</v>
+        <v>54815</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1153302433092111</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08303355396496889</v>
+        <v>0.08415257960029125</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1554049939781112</v>
+        <v>0.1552813978494982</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>73</v>
@@ -5696,19 +5696,19 @@
         <v>81852</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>64439</v>
+        <v>62109</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>101013</v>
+        <v>99028</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1242902780299809</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09785023924969131</v>
+        <v>0.09431092490001516</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1533864437684613</v>
+        <v>0.1503716944075429</v>
       </c>
     </row>
     <row r="30">
@@ -5725,19 +5725,19 @@
         <v>97795</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>79543</v>
+        <v>81120</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>115679</v>
+        <v>115596</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3200665921583913</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2603321378874796</v>
+        <v>0.2654924648360613</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3785991738958431</v>
+        <v>0.3783273116324729</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -5746,19 +5746,19 @@
         <v>105312</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>89064</v>
+        <v>88199</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>123069</v>
+        <v>123518</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2983284583594792</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2523011191211254</v>
+        <v>0.2498495262371475</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.348630420380204</v>
+        <v>0.3499018347223087</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>189</v>
@@ -5767,19 +5767,19 @@
         <v>203107</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>179314</v>
+        <v>180636</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>226206</v>
+        <v>230416</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3084141879888369</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2722858427132133</v>
+        <v>0.2742933626538963</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3434907095791631</v>
+        <v>0.3498829683674675</v>
       </c>
     </row>
     <row r="31">
@@ -5796,19 +5796,19 @@
         <v>97047</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>81447</v>
+        <v>80976</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>115052</v>
+        <v>115503</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3176179355199228</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2665622101659917</v>
+        <v>0.2650217885864224</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3765454434605976</v>
+        <v>0.3780221402636456</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>112</v>
@@ -5817,19 +5817,19 @@
         <v>112075</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>95920</v>
+        <v>94977</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>131841</v>
+        <v>130395</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3174873073469149</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2717218518295608</v>
+        <v>0.269051588784355</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3734803875849619</v>
+        <v>0.369383093467407</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>201</v>
@@ -5838,19 +5838,19 @@
         <v>209122</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>184618</v>
+        <v>183402</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>234533</v>
+        <v>234539</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3175479142254594</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2803400273587098</v>
+        <v>0.2784931520921134</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3561337374930744</v>
+        <v>0.356144053027259</v>
       </c>
     </row>
     <row r="32">
@@ -5867,19 +5867,19 @@
         <v>69564</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>55166</v>
+        <v>54623</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86569</v>
+        <v>85381</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2276733457119309</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1805502498956342</v>
+        <v>0.1787714589700743</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2833265548542496</v>
+        <v>0.27943916543231</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>94</v>
@@ -5888,19 +5888,19 @@
         <v>94907</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>79129</v>
+        <v>79631</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>112066</v>
+        <v>114089</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2688539909843947</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2241562280681771</v>
+        <v>0.2255803950930962</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3174611658586455</v>
+        <v>0.3231929671643233</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>158</v>
@@ -5909,19 +5909,19 @@
         <v>164472</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>142784</v>
+        <v>142476</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>188737</v>
+        <v>188829</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2497476197557228</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2168145880593752</v>
+        <v>0.2163478428350428</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2865936394393669</v>
+        <v>0.2867330064599905</v>
       </c>
     </row>
     <row r="33">
@@ -6013,19 +6013,19 @@
         <v>36957</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26440</v>
+        <v>25202</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>51673</v>
+        <v>49951</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1485488570860013</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1062753258349326</v>
+        <v>0.1012983219344292</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2076989358146158</v>
+        <v>0.2007776260818337</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>39</v>
@@ -6034,19 +6034,19 @@
         <v>44338</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>33583</v>
+        <v>31824</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>59530</v>
+        <v>59469</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1146222758735751</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0868188332583195</v>
+        <v>0.08227183660826159</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1538987320594885</v>
+        <v>0.1537416777835569</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>70</v>
@@ -6055,19 +6055,19 @@
         <v>81295</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>64426</v>
+        <v>64522</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>100931</v>
+        <v>101712</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1279018886362266</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1013612692163551</v>
+        <v>0.1015129584374767</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1587955645055689</v>
+        <v>0.1600244992016251</v>
       </c>
     </row>
     <row r="35">
@@ -6084,19 +6084,19 @@
         <v>68440</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>54303</v>
+        <v>54991</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>83329</v>
+        <v>85289</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2750930694383317</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2182685251675563</v>
+        <v>0.2210365309603646</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3349390334918831</v>
+        <v>0.3428152763421908</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>78</v>
@@ -6105,19 +6105,19 @@
         <v>86759</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>69687</v>
+        <v>70437</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>105247</v>
+        <v>104959</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2242907225449464</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1801562114451089</v>
+        <v>0.1820963425862027</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2720874959984892</v>
+        <v>0.2713435434046756</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>141</v>
@@ -6126,19 +6126,19 @@
         <v>155199</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>134804</v>
+        <v>132997</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>180287</v>
+        <v>180614</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2441758825012037</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2120888403269255</v>
+        <v>0.2092457055109964</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2836470620396074</v>
+        <v>0.2841620878479165</v>
       </c>
     </row>
     <row r="36">
@@ -6155,19 +6155,19 @@
         <v>75423</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>60651</v>
+        <v>60404</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>91868</v>
+        <v>91568</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3031606137258288</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.243784741586306</v>
+        <v>0.2427937683313441</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3692601035191229</v>
+        <v>0.3680540827591073</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>124</v>
@@ -6176,19 +6176,19 @@
         <v>134991</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>116675</v>
+        <v>116899</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>154743</v>
+        <v>155952</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3489825602370556</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3016294872476645</v>
+        <v>0.3022108734079386</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4000438715341675</v>
+        <v>0.4031702882705647</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>192</v>
@@ -6197,19 +6197,19 @@
         <v>210414</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>186699</v>
+        <v>187230</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>234493</v>
+        <v>233796</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3310468389249079</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2937353071343212</v>
+        <v>0.2945712441784591</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3689302030911806</v>
+        <v>0.3678330291563628</v>
       </c>
     </row>
     <row r="37">
@@ -6226,19 +6226,19 @@
         <v>67969</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52726</v>
+        <v>52842</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>84865</v>
+        <v>83611</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2731974597498382</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2119305443720544</v>
+        <v>0.2123948558627247</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3411137193837538</v>
+        <v>0.3360713099890192</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>107</v>
@@ -6247,19 +6247,19 @@
         <v>120726</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>100798</v>
+        <v>102343</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>140238</v>
+        <v>139332</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3121044413444229</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.260585703773786</v>
+        <v>0.2645798119123768</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3625455717381659</v>
+        <v>0.3602037824283787</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>166</v>
@@ -6268,19 +6268,19 @@
         <v>188695</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>168047</v>
+        <v>164165</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>214925</v>
+        <v>212607</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2968753899376618</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2643905546422384</v>
+        <v>0.2582824537996907</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3381430809290741</v>
+        <v>0.3344972255255259</v>
       </c>
     </row>
     <row r="38">
@@ -6372,19 +6372,19 @@
         <v>503023</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>461887</v>
+        <v>458490</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>547287</v>
+        <v>549116</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1475509350906579</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1354846658964064</v>
+        <v>0.1344882722207025</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1605350167375361</v>
+        <v>0.161071577291017</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>412</v>
@@ -6393,19 +6393,19 @@
         <v>452736</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>411966</v>
+        <v>413112</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>494070</v>
+        <v>496874</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1277931283753553</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1162850358957945</v>
+        <v>0.1166085650859729</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1394605691806756</v>
+        <v>0.1402521473946404</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>873</v>
@@ -6414,19 +6414,19 @@
         <v>955758</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>901694</v>
+        <v>900730</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1023782</v>
+        <v>1026384</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1374822136968412</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1297053064225191</v>
+        <v>0.1295667043234323</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1472672223745433</v>
+        <v>0.1476414344413023</v>
       </c>
     </row>
     <row r="40">
@@ -6443,19 +6443,19 @@
         <v>885115</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>838288</v>
+        <v>832277</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>937923</v>
+        <v>940308</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2596296203069124</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2458938593459712</v>
+        <v>0.2441306611112443</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2751196005946691</v>
+        <v>0.2758193782182293</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>821</v>
@@ -6464,19 +6464,19 @@
         <v>875796</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>824544</v>
+        <v>821033</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>931210</v>
+        <v>932603</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2472098607709755</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2327432112287872</v>
+        <v>0.2317521023323982</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2628516632406809</v>
+        <v>0.2632447115145226</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1651</v>
@@ -6485,19 +6485,19 @@
         <v>1760911</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1688471</v>
+        <v>1680383</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1834036</v>
+        <v>1831018</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.253300420899941</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2428802260846411</v>
+        <v>0.2417168157566058</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2638191696845669</v>
+        <v>0.2633850797472195</v>
       </c>
     </row>
     <row r="41">
@@ -6514,19 +6514,19 @@
         <v>977073</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>923032</v>
+        <v>918924</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1029870</v>
+        <v>1031677</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.286603481793024</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2707517546693933</v>
+        <v>0.2695468032390467</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3020904588487729</v>
+        <v>0.302620587621833</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1020</v>
@@ -6535,19 +6535,19 @@
         <v>1094262</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1034798</v>
+        <v>1039511</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1153127</v>
+        <v>1155097</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3088761545526734</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2920912531986704</v>
+        <v>0.293421665557395</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3254918759386478</v>
+        <v>0.3260478261785454</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1944</v>
@@ -6556,19 +6556,19 @@
         <v>2071335</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1991880</v>
+        <v>1993183</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2154597</v>
+        <v>2151126</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2979537971364205</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2865244106403678</v>
+        <v>0.2867119187137868</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3099307125632588</v>
+        <v>0.3094313842162279</v>
       </c>
     </row>
     <row r="42">
@@ -6585,19 +6585,19 @@
         <v>1043935</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>990857</v>
+        <v>989983</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1097770</v>
+        <v>1098466</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3062159628094056</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2906467982394483</v>
+        <v>0.2903905478034928</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3220075191731135</v>
+        <v>0.3222115492250381</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1031</v>
@@ -6606,19 +6606,19 @@
         <v>1119928</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1059474</v>
+        <v>1063175</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1173364</v>
+        <v>1175015</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3161208563009959</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2990564639191026</v>
+        <v>0.3001012413198693</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3312041501957175</v>
+        <v>0.3316702245341578</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2009</v>
@@ -6627,19 +6627,19 @@
         <v>2163863</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2082216</v>
+        <v>2087311</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2242136</v>
+        <v>2252403</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3112635682667973</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2995189809956259</v>
+        <v>0.300251809043095</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3225228860985103</v>
+        <v>0.3239997014749658</v>
       </c>
     </row>
     <row r="43">
@@ -6974,19 +6974,19 @@
         <v>67136</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>52727</v>
+        <v>52402</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82678</v>
+        <v>84347</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1622106496698393</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1273957345371901</v>
+        <v>0.1266124491189426</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1997621404284398</v>
+        <v>0.2037956848950178</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -6995,19 +6995,19 @@
         <v>71930</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55997</v>
+        <v>58351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>87104</v>
+        <v>88898</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1830385221199931</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1424942121757009</v>
+        <v>0.1484855943859916</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.221651992411471</v>
+        <v>0.2262167912001851</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>136</v>
@@ -7016,19 +7016,19 @@
         <v>139065</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>120647</v>
+        <v>120233</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>161136</v>
+        <v>162147</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.172354748408206</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1495272566870067</v>
+        <v>0.149013923979356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1997090549251032</v>
+        <v>0.2009610480224857</v>
       </c>
     </row>
     <row r="5">
@@ -7045,19 +7045,19 @@
         <v>105335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87250</v>
+        <v>88390</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124738</v>
+        <v>123262</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2545060412762884</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2108094444841417</v>
+        <v>0.2135648066535713</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3013857943144082</v>
+        <v>0.2978191321173955</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -7066,19 +7066,19 @@
         <v>90477</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73921</v>
+        <v>75155</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>107198</v>
+        <v>108240</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2302359662382091</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1881063754971904</v>
+        <v>0.1912453005253524</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2727862953159175</v>
+        <v>0.2754370539254975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>189</v>
@@ -7087,19 +7087,19 @@
         <v>195812</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>171313</v>
+        <v>169475</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>221439</v>
+        <v>219191</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.242685437027676</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2123220480019259</v>
+        <v>0.2100434386390791</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2744468899374349</v>
+        <v>0.2716607241819009</v>
       </c>
     </row>
     <row r="6">
@@ -7116,19 +7116,19 @@
         <v>119953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100708</v>
+        <v>100454</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>138036</v>
+        <v>138001</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2898238726380442</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2433262440696827</v>
+        <v>0.2427126931249966</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3335165365455016</v>
+        <v>0.3334324074230733</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>123</v>
@@ -7137,19 +7137,19 @@
         <v>120108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>102422</v>
+        <v>103413</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>137731</v>
+        <v>140138</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3056375290194986</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2606334269029864</v>
+        <v>0.263154929993424</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3504826221246535</v>
+        <v>0.3566089464841206</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>237</v>
@@ -7158,19 +7158,19 @@
         <v>240060</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>214703</v>
+        <v>214363</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>266704</v>
+        <v>265233</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2975258254962628</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2660988748205564</v>
+        <v>0.2656773267186563</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3305466346412954</v>
+        <v>0.3287236230584598</v>
       </c>
     </row>
     <row r="7">
@@ -7187,19 +7187,19 @@
         <v>121457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103092</v>
+        <v>102489</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>141911</v>
+        <v>141241</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2934594364158282</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2490859021034866</v>
+        <v>0.2476299089692646</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3428782360496215</v>
+        <v>0.3412610712244262</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -7208,19 +7208,19 @@
         <v>110461</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>94395</v>
+        <v>93922</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128988</v>
+        <v>127020</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2810879826222992</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2402073127810984</v>
+        <v>0.2390023247616391</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.328233523330548</v>
+        <v>0.3232268136009847</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -7229,19 +7229,19 @@
         <v>231918</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>207323</v>
+        <v>207139</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>257134</v>
+        <v>259900</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2874339890678552</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2569521065789828</v>
+        <v>0.2567239216875861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3186863389194223</v>
+        <v>0.3221148418101999</v>
       </c>
     </row>
     <row r="8">
@@ -7333,19 +7333,19 @@
         <v>92379</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>75805</v>
+        <v>77701</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111072</v>
+        <v>113096</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1564427077158116</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1283746515559343</v>
+        <v>0.1315856256914079</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1880995091020305</v>
+        <v>0.1915275123601748</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>86</v>
@@ -7354,19 +7354,19 @@
         <v>86009</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>70452</v>
+        <v>69786</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>102353</v>
+        <v>103621</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1531627181485109</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1254581378372415</v>
+        <v>0.1242733907625</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1822678540199784</v>
+        <v>0.1845245762074015</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -7375,19 +7375,19 @@
         <v>178388</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>153555</v>
+        <v>156206</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>202033</v>
+        <v>203600</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.154843911702094</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1332881930202598</v>
+        <v>0.1355891072970294</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1753677193944122</v>
+        <v>0.1767277949382557</v>
       </c>
     </row>
     <row r="10">
@@ -7404,19 +7404,19 @@
         <v>133117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>113693</v>
+        <v>113019</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>153272</v>
+        <v>153816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2254318689363906</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1925386185184081</v>
+        <v>0.1913973190305991</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2595642423272578</v>
+        <v>0.2604863633489042</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -7425,19 +7425,19 @@
         <v>130054</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>111654</v>
+        <v>112128</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>150101</v>
+        <v>149732</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2315955866631417</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1988308203067392</v>
+        <v>0.1996749512258179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2672958096361123</v>
+        <v>0.2666374611306433</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>264</v>
@@ -7446,19 +7446,19 @@
         <v>263171</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>236597</v>
+        <v>236439</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>294290</v>
+        <v>294320</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2284363075570049</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2053699947961154</v>
+        <v>0.2052330087919831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2554481075318362</v>
+        <v>0.2554741858716372</v>
       </c>
     </row>
     <row r="11">
@@ -7475,19 +7475,19 @@
         <v>158909</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>140379</v>
+        <v>139778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>181186</v>
+        <v>182481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2691107094488476</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2377306248949235</v>
+        <v>0.2367134402505061</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3068362927976233</v>
+        <v>0.3090294728728321</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>168</v>
@@ -7496,19 +7496,19 @@
         <v>164298</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>143502</v>
+        <v>143417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>186287</v>
+        <v>185045</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2925776619593866</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2555444196434531</v>
+        <v>0.2553925006254362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3317348554041528</v>
+        <v>0.3295229330739463</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>324</v>
@@ -7517,19 +7517,19 @@
         <v>323208</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>292775</v>
+        <v>293873</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351397</v>
+        <v>351460</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2805494257490422</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2541333364360015</v>
+        <v>0.2550867631524935</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3050181270827101</v>
+        <v>0.3050730306823997</v>
       </c>
     </row>
     <row r="12">
@@ -7546,19 +7546,19 @@
         <v>206092</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>183234</v>
+        <v>182601</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>226899</v>
+        <v>229281</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3490147138989502</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3103053777747007</v>
+        <v>0.3092325279370063</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3842517519930573</v>
+        <v>0.3882846897945437</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>187</v>
@@ -7567,19 +7567,19 @@
         <v>181194</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>159184</v>
+        <v>160108</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>204084</v>
+        <v>204618</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3226640332289608</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2834703847754575</v>
+        <v>0.2851153869553985</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3634269295201517</v>
+        <v>0.3643767652044438</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>383</v>
@@ -7588,19 +7588,19 @@
         <v>387286</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>358139</v>
+        <v>354468</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>421263</v>
+        <v>418450</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3361703549918589</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3108700823165357</v>
+        <v>0.3076844147955226</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3656635633006765</v>
+        <v>0.3632216362648471</v>
       </c>
     </row>
     <row r="13">
@@ -7692,19 +7692,19 @@
         <v>93504</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78187</v>
+        <v>77132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>112506</v>
+        <v>114048</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1403656863594217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1173725310997936</v>
+        <v>0.1157881556977562</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1688913979648532</v>
+        <v>0.1712060869839175</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -7713,19 +7713,19 @@
         <v>91182</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73197</v>
+        <v>73298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108413</v>
+        <v>109123</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1385965952612455</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1112602914945626</v>
+        <v>0.1114137359890953</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1647882459660976</v>
+        <v>0.1658678507044191</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>176</v>
@@ -7734,19 +7734,19 @@
         <v>184685</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159228</v>
+        <v>159436</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>209884</v>
+        <v>211053</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1394866529372575</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1202597245357441</v>
+        <v>0.1204162186718047</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1585185361412616</v>
+        <v>0.1594014623818364</v>
       </c>
     </row>
     <row r="15">
@@ -7763,19 +7763,19 @@
         <v>171026</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>150449</v>
+        <v>149958</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>194682</v>
+        <v>195721</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2567402402275691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2258510917449091</v>
+        <v>0.2251130415772125</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.292252044306862</v>
+        <v>0.2938120733936053</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>143</v>
@@ -7784,19 +7784,19 @@
         <v>140324</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>120429</v>
+        <v>118646</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>161591</v>
+        <v>161079</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2132937322745485</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1830531062905037</v>
+        <v>0.1803417701416918</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2456192695716455</v>
+        <v>0.244840937634622</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>308</v>
@@ -7805,19 +7805,19 @@
         <v>311350</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>282710</v>
+        <v>279844</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>345036</v>
+        <v>342542</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.2351523567056849</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2135213495646779</v>
+        <v>0.2113567910889339</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2605938854940393</v>
+        <v>0.258710222491141</v>
       </c>
     </row>
     <row r="16">
@@ -7834,19 +7834,19 @@
         <v>184340</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162702</v>
+        <v>161607</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>208116</v>
+        <v>208091</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2767269820808222</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2442442247090947</v>
+        <v>0.2426014300132125</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3124185550916154</v>
+        <v>0.3123820730473031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>181</v>
@@ -7855,19 +7855,19 @@
         <v>182528</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>160180</v>
+        <v>162811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>205653</v>
+        <v>206907</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2774439014353632</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.243473487472108</v>
+        <v>0.2474736627838879</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3125933668049579</v>
+        <v>0.3144987113970757</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>360</v>
@@ -7876,19 +7876,19 @@
         <v>366868</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>334839</v>
+        <v>336276</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>398527</v>
+        <v>402331</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2770832079836531</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2528922547657989</v>
+        <v>0.2539776350290014</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3009935060044564</v>
+        <v>0.303867195928835</v>
       </c>
     </row>
     <row r="17">
@@ -7905,19 +7905,19 @@
         <v>217274</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>191347</v>
+        <v>192843</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>241856</v>
+        <v>242164</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.326167091332187</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2872457517640987</v>
+        <v>0.2894913269511319</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3630691863850419</v>
+        <v>0.3635309011224571</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>249</v>
@@ -7926,19 +7926,19 @@
         <v>243858</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>221746</v>
+        <v>220912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>269992</v>
+        <v>270023</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3706657710288428</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3370555229259052</v>
+        <v>0.3357864148206367</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4103886927373119</v>
+        <v>0.4104367387148945</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>453</v>
@@ -7947,19 +7947,19 @@
         <v>461133</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>428403</v>
+        <v>429263</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>495289</v>
+        <v>498069</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3482777823734045</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3235582226752471</v>
+        <v>0.3242073305818413</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3740749636632841</v>
+        <v>0.3761743340560413</v>
       </c>
     </row>
     <row r="18">
@@ -8051,19 +8051,19 @@
         <v>77946</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62533</v>
+        <v>61831</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>98367</v>
+        <v>96232</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1213951343904821</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09739090191547184</v>
+        <v>0.09629781785793902</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1531992348500637</v>
+        <v>0.149875028248194</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>69</v>
@@ -8072,19 +8072,19 @@
         <v>74298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57095</v>
+        <v>59323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91399</v>
+        <v>92278</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1146587954628259</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08811107011450874</v>
+        <v>0.09154960018056531</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1410500241633237</v>
+        <v>0.1424066528684429</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>134</v>
@@ -8093,19 +8093,19 @@
         <v>152244</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129909</v>
+        <v>129423</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>178763</v>
+        <v>176710</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1180115398463008</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1006989487858173</v>
+        <v>0.1003223440350492</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1385676495923431</v>
+        <v>0.1369765652213147</v>
       </c>
     </row>
     <row r="20">
@@ -8122,19 +8122,19 @@
         <v>147721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>127638</v>
+        <v>124875</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>171448</v>
+        <v>167950</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2300656862880503</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1987876443116996</v>
+        <v>0.194484342569636</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2670174739159057</v>
+        <v>0.2615697633884022</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -8143,19 +8143,19 @@
         <v>121826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>103616</v>
+        <v>103317</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>142603</v>
+        <v>143641</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.188005892695792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1599028048518983</v>
+        <v>0.159442361595679</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.220069612937071</v>
+        <v>0.2216716973586245</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>249</v>
@@ -8164,19 +8164,19 @@
         <v>269548</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>239780</v>
+        <v>241677</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>299394</v>
+        <v>301971</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2089394796561531</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1858648217794132</v>
+        <v>0.1873351543956709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2320745326588387</v>
+        <v>0.2340726030866679</v>
       </c>
     </row>
     <row r="21">
@@ -8193,19 +8193,19 @@
         <v>166765</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>146566</v>
+        <v>145145</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>190070</v>
+        <v>190212</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2597241288295939</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2282659031503366</v>
+        <v>0.226052673759379</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2960200169189408</v>
+        <v>0.2962408585131223</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>166</v>
@@ -8214,19 +8214,19 @@
         <v>176374</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>153855</v>
+        <v>155443</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>199654</v>
+        <v>203290</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2721856529455855</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.237434107156958</v>
+        <v>0.239883579883881</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3081114956181393</v>
+        <v>0.3137225072326342</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>316</v>
@@ -8235,19 +8235,19 @@
         <v>343139</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>313180</v>
+        <v>312080</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>376796</v>
+        <v>376069</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2659834256767203</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2427605208935654</v>
+        <v>0.2419079600482588</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2920730650013746</v>
+        <v>0.2915092558395501</v>
       </c>
     </row>
     <row r="22">
@@ -8264,19 +8264,19 @@
         <v>249652</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>224227</v>
+        <v>224982</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>274719</v>
+        <v>274536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3888150504918736</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3492173846786389</v>
+        <v>0.3503933639418262</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4278549390670074</v>
+        <v>0.427570781427164</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -8285,19 +8285,19 @@
         <v>275494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>249770</v>
+        <v>245788</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301903</v>
+        <v>301549</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4251496588957967</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3854525952519363</v>
+        <v>0.3793079059483607</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4659051692001437</v>
+        <v>0.4653583786985568</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>480</v>
@@ -8306,19 +8306,19 @@
         <v>525146</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>492479</v>
+        <v>488904</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>563681</v>
+        <v>560825</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4070655548208258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3817439797574594</v>
+        <v>0.3789732161305729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4369360548442888</v>
+        <v>0.4347222211578318</v>
       </c>
     </row>
     <row r="23">
@@ -8410,19 +8410,19 @@
         <v>87791</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71336</v>
+        <v>71401</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107540</v>
+        <v>105874</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.184923849865587</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.150261727017679</v>
+        <v>0.1503990964329437</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2265225382858415</v>
+        <v>0.2230137199352142</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>50</v>
@@ -8431,19 +8431,19 @@
         <v>59743</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>45163</v>
+        <v>46275</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>78282</v>
+        <v>77704</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1208018636161895</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09131996892044794</v>
+        <v>0.09356915269631801</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1582889889387575</v>
+        <v>0.1571202195975499</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>127</v>
@@ -8452,19 +8452,19 @@
         <v>147534</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>124666</v>
+        <v>126270</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174225</v>
+        <v>173634</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1522076083684342</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1286154924056268</v>
+        <v>0.1302693013081387</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1797440161882636</v>
+        <v>0.1791341371990416</v>
       </c>
     </row>
     <row r="25">
@@ -8481,19 +8481,19 @@
         <v>110789</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>93146</v>
+        <v>92302</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>131163</v>
+        <v>133328</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2333656710137862</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1962034327543321</v>
+        <v>0.1944261913955537</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2762827661216679</v>
+        <v>0.2808434360597024</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>91</v>
@@ -8502,19 +8502,19 @@
         <v>104271</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>86174</v>
+        <v>87520</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>124971</v>
+        <v>124508</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2108397023703678</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1742457745707666</v>
+        <v>0.1769669598048701</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2526953356246328</v>
+        <v>0.2517590145763615</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>187</v>
@@ -8523,19 +8523,19 @@
         <v>215060</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>190695</v>
+        <v>189910</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>241777</v>
+        <v>244715</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2218724988087176</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1967351310218266</v>
+        <v>0.1959260452936507</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2494355614465073</v>
+        <v>0.2524663254313307</v>
       </c>
     </row>
     <row r="26">
@@ -8552,19 +8552,19 @@
         <v>109095</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90777</v>
+        <v>91009</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127685</v>
+        <v>129210</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2297987814756872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1912131333212016</v>
+        <v>0.1917026050995546</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2689565443665238</v>
+        <v>0.2721672594449108</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -8573,19 +8573,19 @@
         <v>142362</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>119887</v>
+        <v>122769</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>162737</v>
+        <v>163376</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2878592275572974</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2424144623439213</v>
+        <v>0.2482419815235202</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3290592839924054</v>
+        <v>0.3303500801978593</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>224</v>
@@ -8594,19 +8594,19 @@
         <v>251457</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>223494</v>
+        <v>222970</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>278318</v>
+        <v>278909</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2594223113527927</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.230573603658283</v>
+        <v>0.2300332833403628</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2871345164719001</v>
+        <v>0.287744082153079</v>
       </c>
     </row>
     <row r="27">
@@ -8623,19 +8623,19 @@
         <v>167068</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>147020</v>
+        <v>145742</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>190913</v>
+        <v>188450</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3519116976449396</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3096840470644833</v>
+        <v>0.306990459222526</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4021387047180372</v>
+        <v>0.3969508459529675</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>165</v>
@@ -8644,19 +8644,19 @@
         <v>188177</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>165833</v>
+        <v>166445</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>213233</v>
+        <v>211684</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.3804992064561454</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.3353197484776904</v>
+        <v>0.3365562730629275</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4311621675201536</v>
+        <v>0.428030387888208</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>314</v>
@@ -8665,19 +8665,19 @@
         <v>355245</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>324435</v>
+        <v>320655</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>386405</v>
+        <v>384417</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3664975814700555</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.3347119127407813</v>
+        <v>0.3308123300145667</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3986450505289819</v>
+        <v>0.3965943428866429</v>
       </c>
     </row>
     <row r="28">
@@ -8769,19 +8769,19 @@
         <v>44732</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>33551</v>
+        <v>32892</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>59126</v>
+        <v>59305</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1374390439282467</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1030848543623074</v>
+        <v>0.1010601056157355</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.18166301669358</v>
+        <v>0.1822134832350503</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>52</v>
@@ -8790,19 +8790,19 @@
         <v>55294</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>42825</v>
+        <v>42890</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>69364</v>
+        <v>69264</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1477955036022096</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.114466086248629</v>
+        <v>0.114639321037414</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1854027636232528</v>
+        <v>0.1851341070779924</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>94</v>
@@ -8811,19 +8811,19 @@
         <v>100027</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>81772</v>
+        <v>83204</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>118554</v>
+        <v>117956</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1429774215533346</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1168839924513966</v>
+        <v>0.118931011206851</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1694596030909706</v>
+        <v>0.1686055300744529</v>
       </c>
     </row>
     <row r="30">
@@ -8840,19 +8840,19 @@
         <v>86807</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>72244</v>
+        <v>72835</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>103760</v>
+        <v>104072</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2667105506064622</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2219677150662458</v>
+        <v>0.2237824464634374</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3187981685168965</v>
+        <v>0.3197587450836497</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>82</v>
@@ -8861,19 +8861,19 @@
         <v>87654</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>71049</v>
+        <v>71958</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>105915</v>
+        <v>105538</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.234289957440361</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1899043794034679</v>
+        <v>0.1923358434757762</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2830992172143451</v>
+        <v>0.2820898757581172</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>167</v>
@@ -8882,19 +8882,19 @@
         <v>174461</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>150659</v>
+        <v>152832</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>199444</v>
+        <v>199591</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2493728219389488</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2153501461731211</v>
+        <v>0.2184566118010307</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2850835161683417</v>
+        <v>0.2852940193699099</v>
       </c>
     </row>
     <row r="31">
@@ -8911,19 +8911,19 @@
         <v>99211</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>82671</v>
+        <v>82912</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>116558</v>
+        <v>116177</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3048228389976098</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2540046952177162</v>
+        <v>0.2547456825615834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3581215721105437</v>
+        <v>0.3569510294556905</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>105</v>
@@ -8932,19 +8932,19 @@
         <v>112822</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>95303</v>
+        <v>96374</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>129973</v>
+        <v>131773</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3015595003668635</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2547343823098828</v>
+        <v>0.2575960975716714</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3474020898727746</v>
+        <v>0.3522133450025072</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>203</v>
@@ -8953,19 +8953,19 @@
         <v>212033</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>190100</v>
+        <v>189055</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>237736</v>
+        <v>236343</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3030776864817313</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2717272945069655</v>
+        <v>0.2702333736659561</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3398168310934757</v>
+        <v>0.3378268417459211</v>
       </c>
     </row>
     <row r="32">
@@ -8982,19 +8982,19 @@
         <v>94721</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>78494</v>
+        <v>79239</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>111965</v>
+        <v>114054</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2910275664676814</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2411717558511686</v>
+        <v>0.2434588937303174</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3440098972021478</v>
+        <v>0.3504276623128018</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>112</v>
@@ -9003,19 +9003,19 @@
         <v>118357</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>101408</v>
+        <v>101761</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>136638</v>
+        <v>136497</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.316355038590566</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2710526749100918</v>
+        <v>0.2719961463641595</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3652167563216109</v>
+        <v>0.3648407710802659</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>204</v>
@@ -9024,19 +9024,19 @@
         <v>213078</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>187807</v>
+        <v>192118</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>236975</v>
+        <v>238424</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3045720700259854</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2684491648052554</v>
+        <v>0.2746112579309939</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.338729995376701</v>
+        <v>0.340800605043817</v>
       </c>
     </row>
     <row r="33">
@@ -9128,19 +9128,19 @@
         <v>43213</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>33363</v>
+        <v>33404</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54914</v>
+        <v>54753</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1698195473070725</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1311113039127719</v>
+        <v>0.1312728356366349</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.215802712023728</v>
+        <v>0.215171782387244</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>36</v>
@@ -9149,19 +9149,19 @@
         <v>51242</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>38406</v>
+        <v>37256</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>69260</v>
+        <v>70298</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1288460915920722</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.09657128525102784</v>
+        <v>0.09368071174940429</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1741520175081908</v>
+        <v>0.1767631310472895</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>86</v>
@@ -9170,19 +9170,19 @@
         <v>94454</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>75077</v>
+        <v>76528</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>114609</v>
+        <v>117571</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1448333408495409</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1151213174464229</v>
+        <v>0.1173455857634103</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1757385581149338</v>
+        <v>0.1802791986690536</v>
       </c>
     </row>
     <row r="35">
@@ -9199,19 +9199,19 @@
         <v>68965</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>56588</v>
+        <v>56563</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>82664</v>
+        <v>82174</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2710207364260994</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2223805326542216</v>
+        <v>0.2222843852507304</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3248555267898376</v>
+        <v>0.322929822300246</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>71</v>
@@ -9220,19 +9220,19 @@
         <v>96451</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77505</v>
+        <v>79185</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>117894</v>
+        <v>118204</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2425255476240714</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1948851908671089</v>
+        <v>0.1991100463739481</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2964432490481367</v>
+        <v>0.2972220337141953</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>151</v>
@@ -9241,19 +9241,19 @@
         <v>165416</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>141254</v>
+        <v>142958</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>188146</v>
+        <v>189830</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2536439577768639</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.216593901140336</v>
+        <v>0.2192074814482413</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2884963930072028</v>
+        <v>0.2910794111078624</v>
       </c>
     </row>
     <row r="36">
@@ -9270,19 +9270,19 @@
         <v>70552</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57605</v>
+        <v>57834</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>84191</v>
+        <v>83646</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2772593349022911</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2263784463651115</v>
+        <v>0.2272786028973937</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3308580939483313</v>
+        <v>0.3287152101398808</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>83</v>
@@ -9291,19 +9291,19 @@
         <v>107983</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>86728</v>
+        <v>89582</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>127135</v>
+        <v>129122</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2715210427644995</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2180761699430739</v>
+        <v>0.225251416272171</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3196784404249659</v>
+        <v>0.324674593950439</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>168</v>
@@ -9312,19 +9312,19 @@
         <v>178535</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>155048</v>
+        <v>155013</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>202976</v>
+        <v>201985</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2737600412848381</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2377452831673033</v>
+        <v>0.2376924947497996</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3112364209793081</v>
+        <v>0.3097181608610465</v>
       </c>
     </row>
     <row r="37">
@@ -9341,19 +9341,19 @@
         <v>71733</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>59015</v>
+        <v>59467</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>85653</v>
+        <v>84305</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2819003813645371</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.23192162514197</v>
+        <v>0.2336978396205038</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3366034355131831</v>
+        <v>0.3313074254799246</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>109</v>
@@ -9362,19 +9362,19 @@
         <v>142020</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>121132</v>
+        <v>120302</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>166978</v>
+        <v>162683</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3571073180193568</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3045834195793645</v>
+        <v>0.3024961908846503</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4198623312938471</v>
+        <v>0.4090642111228929</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>193</v>
@@ -9383,19 +9383,19 @@
         <v>213753</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>187144</v>
+        <v>190253</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>239863</v>
+        <v>240198</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3277626600887572</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2869603466844207</v>
+        <v>0.2917275126845655</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3677989515835507</v>
+        <v>0.3683119663022173</v>
       </c>
     </row>
     <row r="38">
@@ -9487,19 +9487,19 @@
         <v>506701</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>461419</v>
+        <v>466111</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>550216</v>
+        <v>547992</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.1504777000277715</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1370301212295805</v>
+        <v>0.1384235031084956</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1634005501805375</v>
+        <v>0.1627402689109902</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>455</v>
@@ -9508,19 +9508,19 @@
         <v>489697</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>452829</v>
+        <v>444141</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>534010</v>
+        <v>536312</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1388506864301376</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1283967623342914</v>
+        <v>0.1259335256155237</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1514152105075483</v>
+        <v>0.1520678661116583</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>926</v>
@@ -9529,19 +9529,19 @@
         <v>996398</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>941182</v>
+        <v>935744</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1055876</v>
+        <v>1057791</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1445296845194081</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1365203945643342</v>
+        <v>0.1357315969908689</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.153157057744731</v>
+        <v>0.1534347605911447</v>
       </c>
     </row>
     <row r="40">
@@ -9558,19 +9558,19 @@
         <v>823759</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>774569</v>
+        <v>771067</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>877138</v>
+        <v>872402</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2446362700532007</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2300279527207238</v>
+        <v>0.2289878340483749</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2604884596081251</v>
+        <v>0.2590819559254787</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>728</v>
@@ -9579,19 +9579,19 @@
         <v>771059</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>720594</v>
+        <v>721661</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>819547</v>
+        <v>824965</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2186289099689063</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.204320099382715</v>
+        <v>0.2046224360279036</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2323774666566522</v>
+        <v>0.2339137477680431</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1515</v>
@@ -9600,19 +9600,19 @@
         <v>1594818</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1517379</v>
+        <v>1521838</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1671217</v>
+        <v>1662771</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2313317202808967</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2200989678271164</v>
+        <v>0.2207458447545878</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2424135419953598</v>
+        <v>0.241188385520955</v>
       </c>
     </row>
     <row r="41">
@@ -9629,19 +9629,19 @@
         <v>908825</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>854606</v>
+        <v>854526</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>963501</v>
+        <v>960224</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2698986080394809</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2537968730224924</v>
+        <v>0.2537731561834399</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2861360468233968</v>
+        <v>0.2851627970654264</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>951</v>
@@ -9650,19 +9650,19 @@
         <v>1006475</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>951405</v>
+        <v>950877</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1064486</v>
+        <v>1062526</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2853798041068393</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2697648567285753</v>
+        <v>0.2696153449041295</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3018285136966268</v>
+        <v>0.3012726275147082</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1832</v>
@@ -9671,19 +9671,19 @@
         <v>1915300</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1839497</v>
+        <v>1845491</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1992435</v>
+        <v>1994982</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2778183024238928</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2668228836864426</v>
+        <v>0.267692274513576</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2890068154879187</v>
+        <v>0.2893762534614785</v>
       </c>
     </row>
     <row r="42">
@@ -9700,19 +9700,19 @@
         <v>1127997</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1073090</v>
+        <v>1075168</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1185169</v>
+        <v>1184613</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3349874218795469</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3186814587654283</v>
+        <v>0.3192984871535899</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3519660070048566</v>
+        <v>0.3518009977240096</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>1188</v>
@@ -9721,19 +9721,19 @@
         <v>1259561</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1203794</v>
+        <v>1208388</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>1317053</v>
+        <v>1322874</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.3571405994941168</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.3413284128898709</v>
+        <v>0.342630972257788</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.3734421093541375</v>
+        <v>0.3750928488997676</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>2254</v>
@@ -9742,19 +9742,19 @@
         <v>2387558</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2304390</v>
+        <v>2304920</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>2470329</v>
+        <v>2473364</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.3463202927758023</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.334256535229414</v>
+        <v>0.3343335167394599</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.3583264067718812</v>
+        <v>0.3587666103649736</v>
       </c>
     </row>
     <row r="43">
@@ -10089,19 +10089,19 @@
         <v>102228</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77745</v>
+        <v>77369</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>134312</v>
+        <v>131448</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2617746825804239</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1990821387171798</v>
+        <v>0.1981196194866236</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3439315446669813</v>
+        <v>0.3365973667014328</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>52</v>
@@ -10110,19 +10110,19 @@
         <v>99261</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>75386</v>
+        <v>76819</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123623</v>
+        <v>125028</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2760555853593811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2096578296032027</v>
+        <v>0.2136413635008181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3438089429063152</v>
+        <v>0.3477179898100353</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>94</v>
@@ -10131,19 +10131,19 @@
         <v>201489</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>168559</v>
+        <v>167553</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>239090</v>
+        <v>244384</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2686204914268445</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2247194159454144</v>
+        <v>0.2233781394389611</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3187503186359665</v>
+        <v>0.325808052060668</v>
       </c>
     </row>
     <row r="5">
@@ -10160,19 +10160,19 @@
         <v>106822</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80765</v>
+        <v>81619</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>136041</v>
+        <v>134120</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2735394373125366</v>
+        <v>0.2735394373125367</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2068145442236131</v>
+        <v>0.209000457743575</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3483602944139781</v>
+        <v>0.3434402653731003</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>60</v>
@@ -10181,19 +10181,19 @@
         <v>97201</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77135</v>
+        <v>75982</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>119905</v>
+        <v>120313</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2703261077817927</v>
+        <v>0.2703261077817926</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2145223998697502</v>
+        <v>0.2113158249234314</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.333469584338962</v>
+        <v>0.3346029418059157</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>107</v>
@@ -10202,19 +10202,19 @@
         <v>204023</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170179</v>
+        <v>171807</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242475</v>
+        <v>243084</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2719990697273413</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.226879290055705</v>
+        <v>0.2290491865897957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.323262967358147</v>
+        <v>0.3240745736338225</v>
       </c>
     </row>
     <row r="6">
@@ -10231,19 +10231,19 @@
         <v>118218</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>90898</v>
+        <v>93376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>148716</v>
+        <v>149032</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3027214285979135</v>
+        <v>0.3027214285979136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2327608224780677</v>
+        <v>0.2391064432352019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.380816505425269</v>
+        <v>0.3816264172093731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>55</v>
@@ -10252,19 +10252,19 @@
         <v>96793</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>74987</v>
+        <v>75174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>120588</v>
+        <v>120732</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2691914489141011</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2085472613813326</v>
+        <v>0.2090677455360889</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3353688442244971</v>
+        <v>0.3357690094621268</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>106</v>
@@ -10273,19 +10273,19 @@
         <v>215011</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>181567</v>
+        <v>179366</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>252284</v>
+        <v>251025</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2866482268478134</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2420612559855145</v>
+        <v>0.2391274974675578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3363391277647783</v>
+        <v>0.3346617088041742</v>
       </c>
     </row>
     <row r="7">
@@ -10302,19 +10302,19 @@
         <v>63250</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41914</v>
+        <v>43262</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>91953</v>
+        <v>90864</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1619644515091259</v>
+        <v>0.161964451509126</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1073280490332711</v>
+        <v>0.1107801774878976</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2354635163205616</v>
+        <v>0.2326753708328452</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -10323,19 +10323,19 @@
         <v>66314</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46957</v>
+        <v>46933</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>89434</v>
+        <v>86635</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1844268579447251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1305929014998271</v>
+        <v>0.1305259718281177</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2487275248929036</v>
+        <v>0.2409421857496455</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>65</v>
@@ -10344,19 +10344,19 @@
         <v>129564</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>101438</v>
+        <v>100091</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164687</v>
+        <v>159135</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1727322119980008</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.135234336421529</v>
+        <v>0.1334396645695554</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2195573638905322</v>
+        <v>0.2121549057514145</v>
       </c>
     </row>
     <row r="8">
@@ -10448,19 +10448,19 @@
         <v>125139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>100719</v>
+        <v>102208</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>152933</v>
+        <v>155280</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2637781395424287</v>
+        <v>0.2637781395424286</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2123041431213221</v>
+        <v>0.2154430706574678</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3223636363219927</v>
+        <v>0.3273118604916848</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>109</v>
@@ -10469,19 +10469,19 @@
         <v>118639</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>101477</v>
+        <v>97227</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>141126</v>
+        <v>139072</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2414444444583868</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2065182290182082</v>
+        <v>0.1978671344326228</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2872077360222683</v>
+        <v>0.2830270949774867</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>181</v>
@@ -10490,19 +10490,19 @@
         <v>243778</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>212902</v>
+        <v>211439</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>274829</v>
+        <v>273856</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2524151468493374</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.220445415263724</v>
+        <v>0.2189302822989796</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2845655914358907</v>
+        <v>0.2835589484364027</v>
       </c>
     </row>
     <row r="10">
@@ -10519,19 +10519,19 @@
         <v>133275</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>109878</v>
+        <v>110424</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>160536</v>
+        <v>162906</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2809284037749387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.231609563420357</v>
+        <v>0.2327605001057872</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3383917263668183</v>
+        <v>0.3433859876113485</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>136</v>
@@ -10540,19 +10540,19 @@
         <v>145843</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>123148</v>
+        <v>124497</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>167745</v>
+        <v>166184</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2968065466307217</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2506203961150367</v>
+        <v>0.2533658191089931</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.341381190491385</v>
+        <v>0.3382029635030949</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>224</v>
@@ -10561,19 +10561,19 @@
         <v>279118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>247961</v>
+        <v>245323</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>313661</v>
+        <v>312713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2890069246184976</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2567456996396457</v>
+        <v>0.2540148706696184</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.324773992495846</v>
+        <v>0.3237919510399475</v>
       </c>
     </row>
     <row r="11">
@@ -10590,19 +10590,19 @@
         <v>150661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126312</v>
+        <v>124861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>178147</v>
+        <v>176597</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3175747661863578</v>
+        <v>0.3175747661863579</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2662513622060516</v>
+        <v>0.2631915861087342</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3755137317832788</v>
+        <v>0.3722461251630475</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>132</v>
@@ -10611,19 +10611,19 @@
         <v>141542</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>122273</v>
+        <v>121036</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161984</v>
+        <v>161323</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2880534096541896</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2488391587511176</v>
+        <v>0.2463213214839814</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.329656158265505</v>
+        <v>0.3283099257262428</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>228</v>
@@ -10632,19 +10632,19 @@
         <v>292202</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>259993</v>
+        <v>262209</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>324080</v>
+        <v>332215</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3025548173018197</v>
+        <v>0.3025548173018196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2692043905724989</v>
+        <v>0.2714991431618261</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3355620613088792</v>
+        <v>0.3439847335770542</v>
       </c>
     </row>
     <row r="12">
@@ -10661,19 +10661,19 @@
         <v>65335</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>50485</v>
+        <v>48093</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>88107</v>
+        <v>87120</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1377186904962747</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1064158009312761</v>
+        <v>0.1013739656738124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1857194772845586</v>
+        <v>0.1836377339253973</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>75</v>
@@ -10682,19 +10682,19 @@
         <v>85349</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>68936</v>
+        <v>69248</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>103898</v>
+        <v>103745</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1736955992567019</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1402923418614529</v>
+        <v>0.1409279462259559</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2114432697669111</v>
+        <v>0.2111329091760425</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>119</v>
@@ -10703,19 +10703,19 @@
         <v>150684</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>125426</v>
+        <v>126769</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>176226</v>
+        <v>178127</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1560231112303453</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1298700525433666</v>
+        <v>0.1312605388111283</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1824696995302991</v>
+        <v>0.184437439233157</v>
       </c>
     </row>
     <row r="13">
@@ -10807,19 +10807,19 @@
         <v>174450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>152395</v>
+        <v>154738</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>198587</v>
+        <v>200773</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2834930380132665</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2476533868683863</v>
+        <v>0.251460195917348</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.322717832144129</v>
+        <v>0.3262700240891588</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>208</v>
@@ -10828,19 +10828,19 @@
         <v>146155</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>129321</v>
+        <v>128523</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>164156</v>
+        <v>163308</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2355547057539745</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2084249082181635</v>
+        <v>0.2071384321331139</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2645671319539115</v>
+        <v>0.2632009354936657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>362</v>
@@ -10849,19 +10849,19 @@
         <v>320604</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>292444</v>
+        <v>290348</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>349012</v>
+        <v>350670</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2594247205629933</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.23663832395384</v>
+        <v>0.2349421356544984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2824113713544959</v>
+        <v>0.2837532948084408</v>
       </c>
     </row>
     <row r="15">
@@ -10878,19 +10878,19 @@
         <v>182359</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>157836</v>
+        <v>157129</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>208627</v>
+        <v>206189</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2963466101401684</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2564950188338431</v>
+        <v>0.255345722136307</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3390341043513941</v>
+        <v>0.3350719097999733</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>274</v>
@@ -10899,19 +10899,19 @@
         <v>199633</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>182371</v>
+        <v>182159</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>221107</v>
+        <v>219925</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3217452149005747</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.293924751983971</v>
+        <v>0.2935829106053508</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3563544732895934</v>
+        <v>0.3544491959750541</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>435</v>
@@ -10920,19 +10920,19 @@
         <v>381993</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>350595</v>
+        <v>349580</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>411190</v>
+        <v>414180</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3090984447025604</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2836925768309695</v>
+        <v>0.2828709058862209</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3327239806417257</v>
+        <v>0.3351437455242091</v>
       </c>
     </row>
     <row r="16">
@@ -10949,19 +10949,19 @@
         <v>159898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>139428</v>
+        <v>137360</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>186736</v>
+        <v>183945</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2598454740499234</v>
+        <v>0.2598454740499233</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2265805237258582</v>
+        <v>0.2232202668025229</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3034592729541438</v>
+        <v>0.2989232889791482</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>237</v>
@@ -10970,19 +10970,19 @@
         <v>179392</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>159961</v>
+        <v>159806</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>199788</v>
+        <v>198434</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2891226862944985</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2578065032093335</v>
+        <v>0.2575561467835423</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3219950514816065</v>
+        <v>0.3198123678663664</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -10991,19 +10991,19 @@
         <v>339290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>310680</v>
+        <v>310128</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>370373</v>
+        <v>373023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2745446345161257</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2513943561078079</v>
+        <v>0.2509478594745218</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2996960324852936</v>
+        <v>0.3018404496078286</v>
       </c>
     </row>
     <row r="17">
@@ -11020,19 +11020,19 @@
         <v>98651</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>81200</v>
+        <v>78313</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119509</v>
+        <v>118539</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1603148777966419</v>
+        <v>0.1603148777966418</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.131954907641965</v>
+        <v>0.1272637548469986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1942101450585472</v>
+        <v>0.1926337000133721</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -11041,19 +11041,19 @@
         <v>95290</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79556</v>
+        <v>80715</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111594</v>
+        <v>111075</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1535773930509524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1282191353339328</v>
+        <v>0.1300865450580996</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1798535760782073</v>
+        <v>0.1790169673620779</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -11062,19 +11062,19 @@
         <v>193941</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>170105</v>
+        <v>169088</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>218148</v>
+        <v>221382</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1569322002183205</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1376448093812522</v>
+        <v>0.1368217547803673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1765201103170217</v>
+        <v>0.1791365935079513</v>
       </c>
     </row>
     <row r="18">
@@ -11166,19 +11166,19 @@
         <v>196511</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>173816</v>
+        <v>170845</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>221598</v>
+        <v>220561</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2843866404719649</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2515441297744462</v>
+        <v>0.2472440260810821</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3206923962588172</v>
+        <v>0.3191925958156112</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>317</v>
@@ -11187,19 +11187,19 @@
         <v>196608</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>177660</v>
+        <v>177703</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>215541</v>
+        <v>215981</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2682106329846026</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2423610755951679</v>
+        <v>0.2424204897093169</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.294038412356981</v>
+        <v>0.2946390540515949</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>511</v>
@@ -11208,19 +11208,19 @@
         <v>393119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>364857</v>
+        <v>364527</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>425363</v>
+        <v>424337</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2760598709275305</v>
+        <v>0.2760598709275304</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2562131804750927</v>
+        <v>0.2559817903563084</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2987026652146695</v>
+        <v>0.2979818466496463</v>
       </c>
     </row>
     <row r="20">
@@ -11237,19 +11237,19 @@
         <v>223548</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>198980</v>
+        <v>199639</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>250744</v>
+        <v>250865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3235141433476482</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.28796098280934</v>
+        <v>0.2889140642000286</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3628723105500392</v>
+        <v>0.3630475205446011</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -11258,19 +11258,19 @@
         <v>210890</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>193330</v>
+        <v>189198</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>230410</v>
+        <v>229597</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2876933988729444</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2637380714699319</v>
+        <v>0.2581020159992645</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3143229974057404</v>
+        <v>0.313213497994881</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>544</v>
@@ -11279,19 +11279,19 @@
         <v>434438</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>404503</v>
+        <v>403053</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468251</v>
+        <v>467763</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3050750393608356</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2840539363101025</v>
+        <v>0.2830359232885946</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3288198817209752</v>
+        <v>0.3284768433995624</v>
       </c>
     </row>
     <row r="21">
@@ -11308,19 +11308,19 @@
         <v>173843</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>152323</v>
+        <v>151486</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>200428</v>
+        <v>198478</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2515821997102097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2204396530660356</v>
+        <v>0.2192272766387884</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2900553493081878</v>
+        <v>0.2872335192022218</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>322</v>
@@ -11329,19 +11329,19 @@
         <v>213847</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>192704</v>
+        <v>194495</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>233743</v>
+        <v>233370</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2917278392635996</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2628845379746503</v>
+        <v>0.2653274109288896</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3188687581411553</v>
+        <v>0.3183601268382936</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>483</v>
@@ -11350,19 +11350,19 @@
         <v>387690</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>356771</v>
+        <v>355723</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>418556</v>
+        <v>417701</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2722475888079939</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2505355025736653</v>
+        <v>0.2497991915705851</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2939224336654206</v>
+        <v>0.2933224055841284</v>
       </c>
     </row>
     <row r="22">
@@ -11379,19 +11379,19 @@
         <v>97097</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79807</v>
+        <v>79678</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116630</v>
+        <v>118855</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1405170164701771</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1154950509473086</v>
+        <v>0.1153087050621872</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1687853644142593</v>
+        <v>0.1720046919931889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>166</v>
@@ -11400,19 +11400,19 @@
         <v>111691</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>96960</v>
+        <v>95642</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129554</v>
+        <v>127944</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1523681288788535</v>
+        <v>0.1523681288788534</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1322722293767918</v>
+        <v>0.1304730002178662</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1767364502927777</v>
+        <v>0.1745395960722285</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>256</v>
@@ -11421,19 +11421,19 @@
         <v>208788</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185058</v>
+        <v>185661</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>232023</v>
+        <v>234815</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1466175009036402</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1299534634957347</v>
+        <v>0.1303770296465785</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1629331739250466</v>
+        <v>0.1648939838558395</v>
       </c>
     </row>
     <row r="23">
@@ -11525,19 +11525,19 @@
         <v>163870</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>143360</v>
+        <v>142498</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>185827</v>
+        <v>186240</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2738591193528591</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2395828807446779</v>
+        <v>0.2381430984925664</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.310555004247362</v>
+        <v>0.3112445434634621</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>241</v>
@@ -11546,19 +11546,19 @@
         <v>140876</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>125872</v>
+        <v>127487</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>159252</v>
+        <v>156573</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2338948881822258</v>
+        <v>0.2338948881822259</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2089849266639033</v>
+        <v>0.2116654058241343</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2644049280289441</v>
+        <v>0.2599565492812796</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>423</v>
@@ -11567,19 +11567,19 @@
         <v>304745</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>279497</v>
+        <v>280807</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>332558</v>
+        <v>332390</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2538115689220362</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.232782999208462</v>
+        <v>0.2338743917503993</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2769762615702321</v>
+        <v>0.2768359198147001</v>
       </c>
     </row>
     <row r="25">
@@ -11596,19 +11596,19 @@
         <v>171160</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>150756</v>
+        <v>151996</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>192476</v>
+        <v>191071</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2860435662841515</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2519443563044463</v>
+        <v>0.2540159775250402</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3216653719275333</v>
+        <v>0.3193183805954515</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>266</v>
@@ -11617,19 +11617,19 @@
         <v>157566</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>140452</v>
+        <v>141518</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>173656</v>
+        <v>172605</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2616059516654638</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2331905017983028</v>
+        <v>0.234960488287879</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2883188361982104</v>
+        <v>0.2865740235417737</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>457</v>
@@ -11638,19 +11638,19 @@
         <v>328727</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>303163</v>
+        <v>300936</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>358469</v>
+        <v>355145</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2737847464063114</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2524939363854915</v>
+        <v>0.2506390496866371</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2985563246421168</v>
+        <v>0.2957881556278136</v>
       </c>
     </row>
     <row r="26">
@@ -11667,19 +11667,19 @@
         <v>156213</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>137084</v>
+        <v>137162</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>176233</v>
+        <v>178458</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2610630429834612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2290947914518077</v>
+        <v>0.2292252176280689</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2945209085481877</v>
+        <v>0.2982394181391405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>293</v>
@@ -11688,19 +11688,19 @@
         <v>181939</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>165217</v>
+        <v>165340</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>201280</v>
+        <v>199956</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.3020718377010459</v>
+        <v>0.302071837701046</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2743080497052872</v>
+        <v>0.2745119905066212</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3341835746592901</v>
+        <v>0.3319851726662493</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>460</v>
@@ -11709,19 +11709,19 @@
         <v>338152</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>313120</v>
+        <v>312519</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>367820</v>
+        <v>364927</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2816345854885042</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2607862608805434</v>
+        <v>0.2602860107318941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3063446230881095</v>
+        <v>0.3039346324647347</v>
       </c>
     </row>
     <row r="27">
@@ -11738,19 +11738,19 @@
         <v>107129</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>90080</v>
+        <v>90481</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>126909</v>
+        <v>128942</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1790342713795282</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1505416543418067</v>
+        <v>0.1512118420635188</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2120912253860535</v>
+        <v>0.2154878740990632</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>191</v>
@@ -11759,19 +11759,19 @@
         <v>121923</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>106098</v>
+        <v>107873</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>137928</v>
+        <v>136905</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2024273224512643</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1761531556216019</v>
+        <v>0.1791007997522111</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2290008430094594</v>
+        <v>0.2273027976407336</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>304</v>
@@ -11780,19 +11780,19 @@
         <v>229052</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>201166</v>
+        <v>206548</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>250726</v>
+        <v>252982</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1907690991831482</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.167544171608578</v>
+        <v>0.1720264905193968</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2088207066608</v>
+        <v>0.2106995088931039</v>
       </c>
     </row>
     <row r="28">
@@ -11884,19 +11884,19 @@
         <v>123793</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>109161</v>
+        <v>109171</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>139741</v>
+        <v>140002</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3066126135920182</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2703723055752928</v>
+        <v>0.2703955148591822</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3461121706043858</v>
+        <v>0.3467603589528509</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>227</v>
@@ -11905,19 +11905,19 @@
         <v>119134</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>105722</v>
+        <v>106401</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>133013</v>
+        <v>134514</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.27411450369818</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2432553176370874</v>
+        <v>0.2448174965585185</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3060491370478329</v>
+        <v>0.3095021894547343</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>402</v>
@@ -11926,19 +11926,19 @@
         <v>242927</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>220658</v>
+        <v>223515</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>264633</v>
+        <v>264429</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.2897652585141879</v>
+        <v>0.2897652585141878</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2632030739791446</v>
+        <v>0.2666109477134943</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3156563518356666</v>
+        <v>0.3154126928097871</v>
       </c>
     </row>
     <row r="30">
@@ -11955,19 +11955,19 @@
         <v>136975</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121809</v>
+        <v>120381</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>153448</v>
+        <v>152974</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3392625920155298</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3016996672158131</v>
+        <v>0.2981627372880746</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3800634516924342</v>
+        <v>0.3788884469237227</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>224</v>
@@ -11976,19 +11976,19 @@
         <v>116726</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104159</v>
+        <v>103779</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130559</v>
+        <v>131178</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.2685738270050931</v>
+        <v>0.2685738270050932</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.239658076372831</v>
+        <v>0.2387849631652426</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3004023998724659</v>
+        <v>0.3018276606299938</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>415</v>
@@ -11997,19 +11997,19 @@
         <v>253701</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>234433</v>
+        <v>232800</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>276458</v>
+        <v>274833</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.3026168077519368</v>
+        <v>0.3026168077519367</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2796332637878413</v>
+        <v>0.277685842864189</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3297609067342608</v>
+        <v>0.327823456937863</v>
       </c>
     </row>
     <row r="31">
@@ -12026,19 +12026,19 @@
         <v>102303</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>88144</v>
+        <v>88084</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>117941</v>
+        <v>117454</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2533857140398968</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2183168938721919</v>
+        <v>0.2181669154553559</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2921185720682962</v>
+        <v>0.2909114756055363</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>268</v>
@@ -12047,19 +12047,19 @@
         <v>145523</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>131111</v>
+        <v>131572</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>159920</v>
+        <v>160829</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.3348334173000686</v>
+        <v>0.3348334173000687</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3016729198866221</v>
+        <v>0.3027337468152845</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3679585528242263</v>
+        <v>0.3700506367385313</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>412</v>
@@ -12068,19 +12068,19 @@
         <v>247826</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>227510</v>
+        <v>225968</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>269391</v>
+        <v>269308</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2956090427682559</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.271376245397377</v>
+        <v>0.2695361704993789</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3213322024755014</v>
+        <v>0.3212328117344126</v>
       </c>
     </row>
     <row r="32">
@@ -12097,19 +12097,19 @@
         <v>40673</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>31666</v>
+        <v>31533</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52498</v>
+        <v>53403</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1007390803525553</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07843178294487174</v>
+        <v>0.07810260418787793</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1300282847460644</v>
+        <v>0.1322694342834955</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>99</v>
@@ -12118,19 +12118,19 @@
         <v>53231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>44295</v>
+        <v>43614</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>64355</v>
+        <v>64139</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1224782519966583</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1019183557446819</v>
+        <v>0.1003524145019883</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1480741804791243</v>
+        <v>0.1475782050590967</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>155</v>
@@ -12139,19 +12139,19 @@
         <v>93904</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>81170</v>
+        <v>79781</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>109661</v>
+        <v>107390</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1120088909656194</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0968207314399242</v>
+        <v>0.09516366042670041</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1308043292355981</v>
+        <v>0.1280955381370208</v>
       </c>
     </row>
     <row r="33">
@@ -12243,19 +12243,19 @@
         <v>89939</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>78276</v>
+        <v>76058</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>104614</v>
+        <v>103632</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.292120980072377</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2542401761696765</v>
+        <v>0.2470349479909981</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3397834879166669</v>
+        <v>0.3365944343942313</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>170</v>
@@ -12264,19 +12264,19 @@
         <v>89672</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>76671</v>
+        <v>77861</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>101894</v>
+        <v>102241</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.1966279448370595</v>
+        <v>0.1966279448370594</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1681184587478328</v>
+        <v>0.1707296822072513</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2234277288567541</v>
+        <v>0.2241873089963774</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>298</v>
@@ -12285,19 +12285,19 @@
         <v>179612</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>161602</v>
+        <v>160806</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>200547</v>
+        <v>199924</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.2351138731221679</v>
+        <v>0.2351138731221678</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2115385714935584</v>
+        <v>0.2104973862304145</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2625188432967137</v>
+        <v>0.2617026843692427</v>
       </c>
     </row>
     <row r="35">
@@ -12314,19 +12314,19 @@
         <v>92339</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>79501</v>
+        <v>80490</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>105522</v>
+        <v>107413</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2999155634213607</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2582175996129757</v>
+        <v>0.2614291143120032</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3427317166343469</v>
+        <v>0.3488741424237944</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>225</v>
@@ -12335,19 +12335,19 @@
         <v>119783</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>106055</v>
+        <v>107218</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>133259</v>
+        <v>135135</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2626527235904128</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2325502026719857</v>
+        <v>0.2351007325745069</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2922028594768872</v>
+        <v>0.2963164063380309</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>363</v>
@@ -12356,19 +12356,19 @@
         <v>212122</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>192829</v>
+        <v>193646</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>230151</v>
+        <v>232733</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2776705202066727</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.252415156374047</v>
+        <v>0.2534843735703338</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3012707511073923</v>
+        <v>0.3046500805998403</v>
       </c>
     </row>
     <row r="36">
@@ -12385,19 +12385,19 @@
         <v>99001</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>86748</v>
+        <v>85764</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>112405</v>
+        <v>113465</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.3215536541449298</v>
+        <v>0.3215536541449299</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2817565501003711</v>
+        <v>0.2785583443248791</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3650888410422463</v>
+        <v>0.3685326432716963</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>300</v>
@@ -12406,19 +12406,19 @@
         <v>156814</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>142315</v>
+        <v>142720</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>171351</v>
+        <v>171508</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.3438512460611629</v>
+        <v>0.343851246061163</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3120586752434583</v>
+        <v>0.3129473905072312</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3757269439906233</v>
+        <v>0.3760715021004944</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>451</v>
@@ -12427,19 +12427,19 @@
         <v>255815</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>236493</v>
+        <v>235109</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>276768</v>
+        <v>274754</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3348647946272538</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3095716002990244</v>
+        <v>0.307759956948187</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3622922341100152</v>
+        <v>0.3596564767348824</v>
       </c>
     </row>
     <row r="37">
@@ -12456,19 +12456,19 @@
         <v>26604</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19243</v>
+        <v>20040</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35424</v>
+        <v>35963</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.08640980236133251</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0625018460971019</v>
+        <v>0.06508939044785025</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1150557986104043</v>
+        <v>0.1168055692788739</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>167</v>
@@ -12477,19 +12477,19 @@
         <v>89782</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>78594</v>
+        <v>77434</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>102800</v>
+        <v>102526</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1968680855113649</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1723353268098906</v>
+        <v>0.1697921019116999</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2254125229356813</v>
+        <v>0.2248129011825243</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>205</v>
@@ -12498,19 +12498,19 @@
         <v>116386</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>100659</v>
+        <v>101736</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>132335</v>
+        <v>132484</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1523508120439057</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1317637853317861</v>
+        <v>0.1331732523857158</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1732276955602654</v>
+        <v>0.1734232808540909</v>
       </c>
     </row>
     <row r="38">
@@ -12602,19 +12602,19 @@
         <v>975929</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>917554</v>
+        <v>920431</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>1034274</v>
+        <v>1035082</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.2803359393714934</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2635677317228594</v>
+        <v>0.2643940685235563</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2970954533128424</v>
+        <v>0.2973276268462311</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>1324</v>
@@ -12623,19 +12623,19 @@
         <v>910345</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>867048</v>
+        <v>863316</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>963045</v>
+        <v>962051</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.2462111114442388</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.2345010498391694</v>
+        <v>0.2334918368566812</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2604642536321563</v>
+        <v>0.2601954144866355</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>2271</v>
@@ -12644,19 +12644,19 @@
         <v>1886274</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>1808500</v>
+        <v>1812689</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>1955897</v>
+        <v>1964883</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.2627598211531695</v>
+        <v>0.2627598211531696</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.2519258086009735</v>
+        <v>0.252509334503484</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2724582853836616</v>
+        <v>0.2737100805460225</v>
       </c>
     </row>
     <row r="40">
@@ -12673,19 +12673,19 @@
         <v>1046479</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>992262</v>
+        <v>988609</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1106203</v>
+        <v>1107241</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.300601472498592</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2850275857055368</v>
+        <v>0.2839782214122557</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3177572726360147</v>
+        <v>0.318055437307776</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1516</v>
@@ -12694,19 +12694,19 @@
         <v>1047642</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>999410</v>
+        <v>1002729</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1094832</v>
+        <v>1095291</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2833442430942961</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.270299622561203</v>
+        <v>0.2711973532300399</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.2961074252487085</v>
+        <v>0.2962314976758822</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2545</v>
@@ -12715,19 +12715,19 @@
         <v>2094121</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>2020533</v>
+        <v>2020132</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>2180651</v>
+        <v>2167498</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2917130729797071</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.281462259729262</v>
+        <v>0.2814063965981847</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3037667901259273</v>
+        <v>0.3019346150646854</v>
       </c>
     </row>
     <row r="41">
@@ -12744,19 +12744,19 @@
         <v>960137</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>900695</v>
+        <v>894612</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1015342</v>
+        <v>1014050</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2757995596910936</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2587249025633793</v>
+        <v>0.2569776949352782</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2916573427338057</v>
+        <v>0.2912862660843019</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1607</v>
@@ -12765,19 +12765,19 @@
         <v>1115849</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1066319</v>
+        <v>1067964</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1168464</v>
+        <v>1168397</v>
       </c>
       <c r="N41" s="6" t="n">
-        <v>0.3017916578455079</v>
+        <v>0.301791657845508</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2883958330865768</v>
+        <v>0.2888405129204766</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3160217560517238</v>
+        <v>0.3160036253974198</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2517</v>
@@ -12786,19 +12786,19 @@
         <v>2075986</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1997578</v>
+        <v>1997468</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2154069</v>
+        <v>2149838</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2891868855078898</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.278264520309268</v>
+        <v>0.2782492192055153</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3000639323540074</v>
+        <v>0.29947450137907</v>
       </c>
     </row>
     <row r="42">
@@ -12815,19 +12815,19 @@
         <v>498739</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>454576</v>
+        <v>453404</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>543337</v>
+        <v>547477</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.143263028438821</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1305771752612658</v>
+        <v>0.1302403486750901</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1560738651865175</v>
+        <v>0.1572629658655176</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>861</v>
@@ -12836,19 +12836,19 @@
         <v>623580</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>584943</v>
+        <v>582638</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>668284</v>
+        <v>666761</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.168652987615957</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1582031961928502</v>
+        <v>0.1575799114883717</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1807435181023281</v>
+        <v>0.1803316867074464</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1316</v>
@@ -12857,19 +12857,19 @@
         <v>1122320</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1060166</v>
+        <v>1065686</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1186764</v>
+        <v>1192142</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1563402203592335</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1476821080776039</v>
+        <v>0.1484511499309641</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1653173067503195</v>
+        <v>0.1660665605953379</v>
       </c>
     </row>
     <row r="43">
